--- a/game/MMO/ExcelMMO/activity.xlsx
+++ b/game/MMO/ExcelMMO/activity.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="830" firstSheet="3" activeTab="9"/>
+    <workbookView windowWidth="28125" windowHeight="11940" tabRatio="830" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -9003,14 +9003,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="49">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="44">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9059,20 +9052,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -9101,13 +9080,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF7030A0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF00B050"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -9157,12 +9129,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -9350,7 +9316,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="56">
+  <fills count="52">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9497,19 +9463,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9563,12 +9517,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -9582,12 +9530,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9868,10 +9810,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9880,143 +9822,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="35" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -10025,227 +9967,227 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="49"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="49" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="49" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="49" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="1" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="8" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="9" borderId="1" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="4" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="4" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="10" borderId="1" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="5" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="5" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="5" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="5" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="11" borderId="5" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="5" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="11" borderId="5" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="5" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="49" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="1" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="1" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="13" borderId="5" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="5" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -10254,70 +10196,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -10326,7 +10259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10338,43 +10271,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10383,40 +10313,40 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -10431,13 +10361,13 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10449,67 +10379,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10518,77 +10439,74 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="8" fillId="11" borderId="5" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="5" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -11129,9 +11047,9 @@
   <cols>
     <col min="1" max="1" width="12.75" style="5" customWidth="1"/>
     <col min="2" max="2" width="15.125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="66.125" style="181" customWidth="1"/>
-    <col min="4" max="4" width="79.5" style="181" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="181"/>
+    <col min="3" max="3" width="66.125" style="173" customWidth="1"/>
+    <col min="4" max="4" width="79.5" style="173" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="173"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -11141,73 +11059,73 @@
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="181" t="s">
+      <c r="C1" s="173" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="182" t="s">
+      <c r="A7" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="182" t="s">
+      <c r="B7" s="174" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
+      <c r="C7" s="175"/>
+      <c r="D7" s="175"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="184" t="s">
+      <c r="A8" s="176" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="184" t="s">
+      <c r="B8" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="185" t="s">
+      <c r="C8" s="177" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="185" t="s">
+      <c r="D8" s="177" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="186" t="s">
+      <c r="A9" s="178" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="186" t="s">
+      <c r="B9" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="187"/>
-      <c r="D9" s="187"/>
+      <c r="C9" s="179"/>
+      <c r="D9" s="179"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="186" t="s">
+      <c r="A10" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="186" t="s">
+      <c r="B10" s="178" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="187"/>
-      <c r="D10" s="187"/>
+      <c r="C10" s="179"/>
+      <c r="D10" s="179"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="188" t="s">
+      <c r="A13" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="188" t="s">
+      <c r="B13" s="180" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="188" t="s">
+      <c r="A14" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="188" t="s">
+      <c r="B14" s="180" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="189" t="s">
+      <c r="C14" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="189" t="s">
+      <c r="D14" s="181" t="s">
         <v>8</v>
       </c>
     </row>
@@ -11215,33 +11133,33 @@
       <c r="A15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="190" t="s">
+      <c r="B15" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="191"/>
-      <c r="D15" s="191"/>
+      <c r="C15" s="183"/>
+      <c r="D15" s="183"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="190" t="s">
+      <c r="B16" s="182" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="191"/>
-      <c r="D16" s="191"/>
+      <c r="C16" s="183"/>
+      <c r="D16" s="183"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="190" t="s">
+      <c r="B17" s="182" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="191" t="s">
+      <c r="C17" s="183" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="191" t="s">
+      <c r="D17" s="183" t="s">
         <v>22</v>
       </c>
     </row>
@@ -11249,53 +11167,53 @@
       <c r="A18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="190" t="s">
+      <c r="B18" s="182" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="191" t="s">
+      <c r="C18" s="183" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="191" t="s">
+      <c r="D18" s="183" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" ht="24" spans="1:4">
-      <c r="A19" s="190" t="s">
+      <c r="A19" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="190" t="s">
+      <c r="B19" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="191" t="s">
+      <c r="C19" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="192" t="s">
+      <c r="D19" s="184" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="190" t="s">
+      <c r="A20" s="182" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="190" t="s">
+      <c r="B20" s="182" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="191" t="s">
+      <c r="C20" s="183" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="191"/>
+      <c r="D20" s="183"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="190" t="s">
+      <c r="A21" s="182" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="190" t="s">
+      <c r="B21" s="182" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="191" t="s">
+      <c r="C21" s="183" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="191" t="s">
+      <c r="D21" s="183" t="s">
         <v>37</v>
       </c>
     </row>
@@ -11303,27 +11221,27 @@
       <c r="A22" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="190" t="s">
+      <c r="B22" s="182" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="192" t="s">
+      <c r="C22" s="184" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="193" t="s">
+      <c r="D22" s="185" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="23" ht="36" spans="1:4">
-      <c r="A23" s="194" t="s">
+      <c r="A23" s="186" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="195" t="s">
+      <c r="B23" s="187" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="191" t="s">
+      <c r="C23" s="183" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="192" t="s">
+      <c r="D23" s="184" t="s">
         <v>45</v>
       </c>
     </row>
@@ -11331,25 +11249,25 @@
       <c r="A24" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="190" t="s">
+      <c r="B24" s="182" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="191" t="s">
+      <c r="C24" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="191"/>
+      <c r="D24" s="183"/>
     </row>
     <row r="25" ht="24" spans="1:4">
       <c r="A25" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="190" t="s">
+      <c r="B25" s="182" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="191" t="s">
+      <c r="C25" s="183" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="192" t="s">
+      <c r="D25" s="184" t="s">
         <v>52</v>
       </c>
     </row>
@@ -11357,77 +11275,77 @@
       <c r="A26" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="190" t="s">
+      <c r="B26" s="182" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="191"/>
-      <c r="D26" s="191" t="s">
+      <c r="C26" s="183"/>
+      <c r="D26" s="183" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="194" t="s">
+      <c r="A27" s="186" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="195" t="s">
+      <c r="B27" s="187" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="191" t="s">
+      <c r="C27" s="183" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="191" t="s">
+      <c r="D27" s="183" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="194" t="s">
+      <c r="A28" s="186" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="195" t="s">
+      <c r="B28" s="187" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="191"/>
-      <c r="D28" s="191" t="s">
+      <c r="C28" s="183"/>
+      <c r="D28" s="183" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="195" t="s">
+      <c r="A29" s="187" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="195" t="s">
+      <c r="B29" s="187" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="191" t="s">
+      <c r="C29" s="183" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="191" t="s">
+      <c r="D29" s="183" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="190" t="s">
+      <c r="A30" s="182" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="190" t="s">
+      <c r="B30" s="182" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="191" t="s">
+      <c r="C30" s="183" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="191" t="s">
+      <c r="D30" s="183" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="190" t="s">
+      <c r="A31" s="182" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="190" t="s">
+      <c r="B31" s="182" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="191"/>
-      <c r="D31" s="191" t="s">
+      <c r="C31" s="183"/>
+      <c r="D31" s="183" t="s">
         <v>73</v>
       </c>
     </row>
@@ -11435,717 +11353,717 @@
       <c r="A32" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="190" t="s">
+      <c r="B32" s="182" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="191" t="s">
+      <c r="C32" s="183" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="191" t="s">
+      <c r="D32" s="183" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="190" t="s">
+      <c r="A33" s="182" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="190" t="s">
+      <c r="B33" s="182" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="191" t="s">
+      <c r="C33" s="183" t="s">
         <v>80</v>
       </c>
-      <c r="D33" s="191" t="s">
+      <c r="D33" s="183" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="190" t="s">
+      <c r="A34" s="182" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="190" t="s">
+      <c r="B34" s="182" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="191"/>
-      <c r="D34" s="191" t="s">
+      <c r="C34" s="183"/>
+      <c r="D34" s="183" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="190" t="s">
+      <c r="A35" s="182" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="190" t="s">
+      <c r="B35" s="182" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="191"/>
-      <c r="D35" s="191" t="s">
+      <c r="C35" s="183"/>
+      <c r="D35" s="183" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="188" t="s">
+      <c r="A38" s="180" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="188" t="s">
+      <c r="B38" s="180" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="188" t="s">
+      <c r="A39" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="188" t="s">
+      <c r="B39" s="180" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="189" t="s">
+      <c r="C39" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="189" t="s">
+      <c r="D39" s="181" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="40" ht="13.5" spans="1:4">
-      <c r="A40" s="158" t="s">
+      <c r="A40" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="158" t="s">
+      <c r="B40" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="191" t="s">
+      <c r="C40" s="183" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="192" t="s">
+      <c r="D40" s="184" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="41" ht="13.5" spans="1:4">
-      <c r="A41" s="158" t="s">
+      <c r="A41" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="158" t="s">
+      <c r="B41" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="C41" s="191" t="s">
+      <c r="C41" s="183" t="s">
         <v>94</v>
       </c>
-      <c r="D41" s="191" t="s">
+      <c r="D41" s="183" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="42" ht="13.5" spans="1:4">
-      <c r="A42" s="158" t="s">
+      <c r="A42" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="158" t="s">
+      <c r="B42" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="191" t="s">
+      <c r="C42" s="183" t="s">
         <v>98</v>
       </c>
-      <c r="D42" s="191" t="s">
+      <c r="D42" s="183" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="43" ht="13.5" spans="1:4">
-      <c r="A43" s="158" t="s">
+      <c r="A43" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="B43" s="158" t="s">
+      <c r="B43" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="C43" s="191" t="s">
+      <c r="C43" s="183" t="s">
         <v>98</v>
       </c>
-      <c r="D43" s="191" t="s">
+      <c r="D43" s="183" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="44" ht="13.5" spans="1:4">
-      <c r="A44" s="158" t="s">
+      <c r="A44" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="B44" s="158" t="s">
+      <c r="B44" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="191" t="s">
+      <c r="C44" s="183" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="191" t="s">
+      <c r="D44" s="183" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="45" ht="13.5" spans="1:4">
-      <c r="A45" s="158" t="s">
+      <c r="A45" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="B45" s="158" t="s">
+      <c r="B45" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="C45" s="191" t="s">
+      <c r="C45" s="183" t="s">
         <v>108</v>
       </c>
-      <c r="D45" s="191"/>
+      <c r="D45" s="183"/>
     </row>
     <row r="46" ht="13.5" spans="1:4">
-      <c r="A46" s="158" t="s">
+      <c r="A46" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="B46" s="158" t="s">
+      <c r="B46" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="C46" s="191"/>
-      <c r="D46" s="191" t="s">
+      <c r="C46" s="183"/>
+      <c r="D46" s="183" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="47" ht="13.5" spans="1:4">
-      <c r="A47" s="158" t="s">
+      <c r="A47" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="B47" s="158" t="s">
+      <c r="B47" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="C47" s="191"/>
-      <c r="D47" s="191" t="s">
+      <c r="C47" s="183"/>
+      <c r="D47" s="183" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="188" t="s">
+      <c r="A50" s="180" t="s">
         <v>115</v>
       </c>
-      <c r="B50" s="188" t="s">
+      <c r="B50" s="180" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="188" t="s">
+      <c r="A51" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="B51" s="188" t="s">
+      <c r="B51" s="180" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="189" t="s">
+      <c r="C51" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="D51" s="189" t="s">
+      <c r="D51" s="181" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="52" ht="24" spans="1:4">
-      <c r="A52" s="158" t="s">
+      <c r="A52" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B52" s="158" t="s">
+      <c r="B52" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="191" t="s">
+      <c r="C52" s="183" t="s">
         <v>117</v>
       </c>
-      <c r="D52" s="192" t="s">
+      <c r="D52" s="184" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="53" ht="13.5" spans="1:4">
-      <c r="A53" s="158" t="s">
+      <c r="A53" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="B53" s="158" t="s">
+      <c r="B53" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="C53" s="191" t="s">
+      <c r="C53" s="183" t="s">
         <v>117</v>
       </c>
-      <c r="D53" s="191" t="s">
+      <c r="D53" s="183" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="54" ht="13.5" spans="1:4">
-      <c r="A54" s="158" t="s">
+      <c r="A54" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="B54" s="158" t="s">
+      <c r="B54" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="C54" s="191" t="s">
+      <c r="C54" s="183" t="s">
         <v>117</v>
       </c>
-      <c r="D54" s="191" t="s">
+      <c r="D54" s="183" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="55" ht="13.5" spans="1:4">
-      <c r="A55" s="158" t="s">
+      <c r="A55" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="B55" s="158" t="s">
+      <c r="B55" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="C55" s="191" t="s">
+      <c r="C55" s="183" t="s">
         <v>117</v>
       </c>
-      <c r="D55" s="191" t="s">
+      <c r="D55" s="183" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="56" ht="13.5" spans="1:4">
-      <c r="A56" s="158" t="s">
+      <c r="A56" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="B56" s="158" t="s">
+      <c r="B56" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="C56" s="191" t="s">
+      <c r="C56" s="183" t="s">
         <v>117</v>
       </c>
-      <c r="D56" s="191" t="s">
+      <c r="D56" s="183" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="57" ht="13.5" spans="1:4">
-      <c r="A57" s="158" t="s">
+      <c r="A57" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="B57" s="158" t="s">
+      <c r="B57" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="C57" s="191" t="s">
+      <c r="C57" s="183" t="s">
         <v>117</v>
       </c>
-      <c r="D57" s="191" t="s">
+      <c r="D57" s="183" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="58" ht="13.5" spans="1:4">
-      <c r="A58" s="158" t="s">
+      <c r="A58" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="B58" s="158" t="s">
+      <c r="B58" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="C58" s="191"/>
-      <c r="D58" s="191" t="s">
+      <c r="C58" s="183"/>
+      <c r="D58" s="183" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="59" ht="13.5" spans="1:4">
-      <c r="A59" s="158" t="s">
+      <c r="A59" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="B59" s="158" t="s">
+      <c r="B59" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="C59" s="191"/>
-      <c r="D59" s="191" t="s">
+      <c r="C59" s="183"/>
+      <c r="D59" s="183" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="188" t="s">
+      <c r="A62" s="180" t="s">
         <v>138</v>
       </c>
-      <c r="B62" s="188" t="s">
+      <c r="B62" s="180" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="188" t="s">
+      <c r="A63" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="B63" s="188" t="s">
+      <c r="B63" s="180" t="s">
         <v>6</v>
       </c>
-      <c r="C63" s="189" t="s">
+      <c r="C63" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="D63" s="189" t="s">
+      <c r="D63" s="181" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="190" t="s">
+      <c r="A64" s="182" t="s">
         <v>140</v>
       </c>
-      <c r="B64" s="190" t="s">
+      <c r="B64" s="182" t="s">
         <v>140</v>
       </c>
-      <c r="C64" s="196" t="s">
+      <c r="C64" s="188" t="s">
         <v>141</v>
       </c>
-      <c r="D64" s="191" t="s">
+      <c r="D64" s="183" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="65" ht="31.5" customHeight="1" spans="1:4">
-      <c r="A65" s="190" t="s">
+      <c r="A65" s="182" t="s">
         <v>23</v>
       </c>
-      <c r="B65" s="190" t="s">
+      <c r="B65" s="182" t="s">
         <v>24</v>
       </c>
-      <c r="C65" s="196" t="s">
+      <c r="C65" s="188" t="s">
         <v>143</v>
       </c>
-      <c r="D65" s="191" t="s">
+      <c r="D65" s="183" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="190" t="s">
+      <c r="A66" s="182" t="s">
         <v>145</v>
       </c>
-      <c r="B66" s="190" t="s">
+      <c r="B66" s="182" t="s">
         <v>146</v>
       </c>
-      <c r="C66" s="196" t="s">
+      <c r="C66" s="188" t="s">
         <v>147</v>
       </c>
-      <c r="D66" s="191" t="s">
+      <c r="D66" s="183" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="190" t="s">
+      <c r="A67" s="182" t="s">
         <v>149</v>
       </c>
-      <c r="B67" s="190" t="s">
+      <c r="B67" s="182" t="s">
         <v>150</v>
       </c>
-      <c r="C67" s="196" t="s">
+      <c r="C67" s="188" t="s">
         <v>147</v>
       </c>
-      <c r="D67" s="191" t="s">
+      <c r="D67" s="183" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="190" t="s">
+      <c r="A68" s="182" t="s">
         <v>152</v>
       </c>
-      <c r="B68" s="190" t="s">
+      <c r="B68" s="182" t="s">
         <v>153</v>
       </c>
-      <c r="C68" s="196" t="s">
+      <c r="C68" s="188" t="s">
         <v>152</v>
       </c>
-      <c r="D68" s="191" t="s">
+      <c r="D68" s="183" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="190" t="s">
+      <c r="A69" s="182" t="s">
         <v>155</v>
       </c>
-      <c r="B69" s="190" t="s">
+      <c r="B69" s="182" t="s">
         <v>156</v>
       </c>
-      <c r="C69" s="196" t="s">
+      <c r="C69" s="188" t="s">
         <v>157</v>
       </c>
-      <c r="D69" s="191" t="s">
+      <c r="D69" s="183" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="190" t="s">
+      <c r="A70" s="182" t="s">
         <v>159</v>
       </c>
-      <c r="B70" s="190" t="s">
+      <c r="B70" s="182" t="s">
         <v>160</v>
       </c>
-      <c r="C70" s="196" t="s">
+      <c r="C70" s="188" t="s">
         <v>147</v>
       </c>
-      <c r="D70" s="191" t="s">
+      <c r="D70" s="183" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="190" t="s">
+      <c r="A71" s="182" t="s">
         <v>162</v>
       </c>
-      <c r="B71" s="190" t="s">
+      <c r="B71" s="182" t="s">
         <v>163</v>
       </c>
-      <c r="C71" s="196" t="s">
+      <c r="C71" s="188" t="s">
         <v>147</v>
       </c>
-      <c r="D71" s="191" t="s">
+      <c r="D71" s="183" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="190" t="s">
+      <c r="A72" s="182" t="s">
         <v>165</v>
       </c>
-      <c r="B72" s="190" t="s">
+      <c r="B72" s="182" t="s">
         <v>166</v>
       </c>
-      <c r="C72" s="196" t="s">
+      <c r="C72" s="188" t="s">
         <v>147</v>
       </c>
-      <c r="D72" s="191" t="s">
+      <c r="D72" s="183" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="190" t="s">
+      <c r="A73" s="182" t="s">
         <v>168</v>
       </c>
-      <c r="B73" s="190" t="s">
+      <c r="B73" s="182" t="s">
         <v>169</v>
       </c>
-      <c r="C73" s="196" t="s">
+      <c r="C73" s="188" t="s">
         <v>170</v>
       </c>
-      <c r="D73" s="191" t="s">
+      <c r="D73" s="183" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="190" t="s">
+      <c r="A74" s="182" t="s">
         <v>172</v>
       </c>
-      <c r="B74" s="190" t="s">
+      <c r="B74" s="182" t="s">
         <v>173</v>
       </c>
-      <c r="C74" s="196" t="s">
+      <c r="C74" s="188" t="s">
         <v>147</v>
       </c>
-      <c r="D74" s="191" t="s">
+      <c r="D74" s="183" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="190" t="s">
+      <c r="A75" s="182" t="s">
         <v>168</v>
       </c>
-      <c r="B75" s="190" t="s">
+      <c r="B75" s="182" t="s">
         <v>175</v>
       </c>
-      <c r="C75" s="196" t="s">
+      <c r="C75" s="188" t="s">
         <v>170</v>
       </c>
-      <c r="D75" s="191" t="s">
+      <c r="D75" s="183" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="190" t="s">
+      <c r="A76" s="182" t="s">
         <v>172</v>
       </c>
-      <c r="B76" s="190" t="s">
+      <c r="B76" s="182" t="s">
         <v>177</v>
       </c>
-      <c r="C76" s="196" t="s">
+      <c r="C76" s="188" t="s">
         <v>147</v>
       </c>
-      <c r="D76" s="191" t="s">
+      <c r="D76" s="183" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="190" t="s">
+      <c r="A77" s="182" t="s">
         <v>168</v>
       </c>
-      <c r="B77" s="190" t="s">
+      <c r="B77" s="182" t="s">
         <v>179</v>
       </c>
-      <c r="C77" s="196" t="s">
+      <c r="C77" s="188" t="s">
         <v>170</v>
       </c>
-      <c r="D77" s="191" t="s">
+      <c r="D77" s="183" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="190" t="s">
+      <c r="A78" s="182" t="s">
         <v>172</v>
       </c>
-      <c r="B78" s="190" t="s">
+      <c r="B78" s="182" t="s">
         <v>180</v>
       </c>
-      <c r="C78" s="196" t="s">
+      <c r="C78" s="188" t="s">
         <v>147</v>
       </c>
-      <c r="D78" s="191" t="s">
+      <c r="D78" s="183" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="79" spans="3:3">
-      <c r="C79" s="197"/>
+      <c r="C79" s="189"/>
     </row>
     <row r="80" spans="3:3">
-      <c r="C80" s="197"/>
+      <c r="C80" s="189"/>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="188" t="s">
+      <c r="A81" s="180" t="s">
         <v>181</v>
       </c>
-      <c r="B81" s="188" t="s">
+      <c r="B81" s="180" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="188" t="s">
+      <c r="A82" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="B82" s="188" t="s">
+      <c r="B82" s="180" t="s">
         <v>6</v>
       </c>
-      <c r="C82" s="198" t="s">
+      <c r="C82" s="190" t="s">
         <v>7</v>
       </c>
-      <c r="D82" s="189" t="s">
+      <c r="D82" s="181" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="190" t="s">
+      <c r="A83" s="182" t="s">
         <v>140</v>
       </c>
-      <c r="B83" s="190" t="s">
+      <c r="B83" s="182" t="s">
         <v>140</v>
       </c>
-      <c r="C83" s="196"/>
-      <c r="D83" s="191" t="s">
+      <c r="C83" s="188"/>
+      <c r="D83" s="183" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="84" ht="36" spans="1:4">
-      <c r="A84" s="190" t="s">
+      <c r="A84" s="182" t="s">
         <v>183</v>
       </c>
-      <c r="B84" s="190" t="s">
+      <c r="B84" s="182" t="s">
         <v>184</v>
       </c>
-      <c r="C84" s="196" t="s">
+      <c r="C84" s="188" t="s">
         <v>185</v>
       </c>
-      <c r="D84" s="192" t="s">
+      <c r="D84" s="184" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="85" ht="24" spans="1:4">
-      <c r="A85" s="190" t="s">
+      <c r="A85" s="182" t="s">
         <v>187</v>
       </c>
-      <c r="B85" s="190" t="s">
+      <c r="B85" s="182" t="s">
         <v>188</v>
       </c>
-      <c r="C85" s="196" t="s">
+      <c r="C85" s="188" t="s">
         <v>189</v>
       </c>
-      <c r="D85" s="192" t="s">
+      <c r="D85" s="184" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="190" t="s">
+      <c r="A86" s="182" t="s">
         <v>191</v>
       </c>
-      <c r="B86" s="190" t="s">
+      <c r="B86" s="182" t="s">
         <v>192</v>
       </c>
-      <c r="C86" s="196"/>
-      <c r="D86" s="191" t="s">
+      <c r="C86" s="188"/>
+      <c r="D86" s="183" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="190" t="s">
+      <c r="A87" s="182" t="s">
         <v>194</v>
       </c>
-      <c r="B87" s="190" t="s">
+      <c r="B87" s="182" t="s">
         <v>195</v>
       </c>
-      <c r="C87" s="196"/>
-      <c r="D87" s="191" t="s">
+      <c r="C87" s="188"/>
+      <c r="D87" s="183" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="190" t="s">
+      <c r="A88" s="182" t="s">
         <v>168</v>
       </c>
-      <c r="B88" s="190" t="s">
+      <c r="B88" s="182" t="s">
         <v>169</v>
       </c>
-      <c r="C88" s="196" t="s">
+      <c r="C88" s="188" t="s">
         <v>170</v>
       </c>
-      <c r="D88" s="191" t="s">
+      <c r="D88" s="183" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="190" t="s">
+      <c r="A89" s="182" t="s">
         <v>172</v>
       </c>
-      <c r="B89" s="190" t="s">
+      <c r="B89" s="182" t="s">
         <v>173</v>
       </c>
-      <c r="C89" s="196" t="s">
+      <c r="C89" s="188" t="s">
         <v>147</v>
       </c>
-      <c r="D89" s="191" t="s">
+      <c r="D89" s="183" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="190" t="s">
+      <c r="A90" s="182" t="s">
         <v>168</v>
       </c>
-      <c r="B90" s="190" t="s">
+      <c r="B90" s="182" t="s">
         <v>175</v>
       </c>
-      <c r="C90" s="196" t="s">
+      <c r="C90" s="188" t="s">
         <v>170</v>
       </c>
-      <c r="D90" s="191" t="s">
+      <c r="D90" s="183" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="190" t="s">
+      <c r="A91" s="182" t="s">
         <v>172</v>
       </c>
-      <c r="B91" s="190" t="s">
+      <c r="B91" s="182" t="s">
         <v>177</v>
       </c>
-      <c r="C91" s="196" t="s">
+      <c r="C91" s="188" t="s">
         <v>147</v>
       </c>
-      <c r="D91" s="191" t="s">
+      <c r="D91" s="183" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="190" t="s">
+      <c r="A92" s="182" t="s">
         <v>168</v>
       </c>
-      <c r="B92" s="190" t="s">
+      <c r="B92" s="182" t="s">
         <v>179</v>
       </c>
-      <c r="C92" s="196" t="s">
+      <c r="C92" s="188" t="s">
         <v>170</v>
       </c>
-      <c r="D92" s="191" t="s">
+      <c r="D92" s="183" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="190" t="s">
+      <c r="A93" s="182" t="s">
         <v>172</v>
       </c>
-      <c r="B93" s="190" t="s">
+      <c r="B93" s="182" t="s">
         <v>180</v>
       </c>
-      <c r="C93" s="196" t="s">
+      <c r="C93" s="188" t="s">
         <v>147</v>
       </c>
-      <c r="D93" s="191" t="s">
+      <c r="D93" s="183" t="s">
         <v>178</v>
       </c>
     </row>
@@ -12163,7 +12081,7 @@
   <sheetPr/>
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
@@ -12430,17 +12348,17 @@
       <c r="L5" s="103">
         <v>10022610008</v>
       </c>
-      <c r="M5" s="104">
+      <c r="M5" s="99">
         <v>2</v>
       </c>
-      <c r="N5" s="105">
+      <c r="N5" s="103">
         <v>10002990005</v>
       </c>
-      <c r="O5" s="104">
+      <c r="O5" s="99">
         <v>2000</v>
       </c>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="104"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="99"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="7">
@@ -12479,17 +12397,17 @@
       <c r="L6" s="103">
         <v>10022610008</v>
       </c>
-      <c r="M6" s="104">
+      <c r="M6" s="99">
         <v>2</v>
       </c>
-      <c r="N6" s="105">
+      <c r="N6" s="103">
         <v>10002990005</v>
       </c>
-      <c r="O6" s="104">
+      <c r="O6" s="99">
         <v>3000</v>
       </c>
-      <c r="P6" s="105"/>
-      <c r="Q6" s="105"/>
+      <c r="P6" s="103"/>
+      <c r="Q6" s="103"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="7">
@@ -12528,17 +12446,17 @@
       <c r="L7" s="103">
         <v>10022610008</v>
       </c>
-      <c r="M7" s="104">
+      <c r="M7" s="99">
         <v>3</v>
       </c>
-      <c r="N7" s="105">
+      <c r="N7" s="103">
         <v>10002990005</v>
       </c>
-      <c r="O7" s="104">
+      <c r="O7" s="99">
         <v>4000</v>
       </c>
-      <c r="P7" s="105"/>
-      <c r="Q7" s="105"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="103"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="7">
@@ -12577,16 +12495,16 @@
       <c r="L8" s="103">
         <v>10022610008</v>
       </c>
-      <c r="M8" s="104">
+      <c r="M8" s="99">
         <v>3</v>
       </c>
-      <c r="N8" s="105">
+      <c r="N8" s="103">
         <v>10002990005</v>
       </c>
-      <c r="O8" s="104">
+      <c r="O8" s="99">
         <v>5000</v>
       </c>
-      <c r="P8" s="105">
+      <c r="P8" s="103">
         <v>10002170008</v>
       </c>
       <c r="Q8" s="73">
@@ -12630,16 +12548,16 @@
       <c r="L9" s="103">
         <v>10022610008</v>
       </c>
-      <c r="M9" s="104">
+      <c r="M9" s="99">
         <v>4</v>
       </c>
-      <c r="N9" s="105">
+      <c r="N9" s="103">
         <v>10002990005</v>
       </c>
-      <c r="O9" s="104">
+      <c r="O9" s="99">
         <v>6000</v>
       </c>
-      <c r="P9" s="105">
+      <c r="P9" s="103">
         <v>10002170011</v>
       </c>
       <c r="Q9" s="73">
@@ -12683,16 +12601,16 @@
       <c r="L10" s="103">
         <v>10022610008</v>
       </c>
-      <c r="M10" s="104">
+      <c r="M10" s="99">
         <v>4</v>
       </c>
-      <c r="N10" s="105">
+      <c r="N10" s="103">
         <v>10002990005</v>
       </c>
-      <c r="O10" s="104">
+      <c r="O10" s="99">
         <v>7000</v>
       </c>
-      <c r="P10" s="105">
+      <c r="P10" s="103">
         <v>10002170010</v>
       </c>
       <c r="Q10" s="73">
@@ -12736,16 +12654,16 @@
       <c r="L11" s="103">
         <v>10022610008</v>
       </c>
-      <c r="M11" s="104">
+      <c r="M11" s="99">
         <v>4</v>
       </c>
-      <c r="N11" s="105">
+      <c r="N11" s="103">
         <v>10002990005</v>
       </c>
-      <c r="O11" s="104">
+      <c r="O11" s="99">
         <v>8000</v>
       </c>
-      <c r="P11" s="105">
+      <c r="P11" s="103">
         <v>10002170007</v>
       </c>
       <c r="Q11" s="73">
@@ -12789,16 +12707,16 @@
       <c r="L12" s="103">
         <v>10022610008</v>
       </c>
-      <c r="M12" s="104">
+      <c r="M12" s="99">
         <v>5</v>
       </c>
-      <c r="N12" s="105">
+      <c r="N12" s="103">
         <v>10002990005</v>
       </c>
-      <c r="O12" s="104">
+      <c r="O12" s="99">
         <v>9000</v>
       </c>
-      <c r="P12" s="105">
+      <c r="P12" s="103">
         <v>10002170012</v>
       </c>
       <c r="Q12" s="73">
@@ -12842,16 +12760,16 @@
       <c r="L13" s="103">
         <v>10022610008</v>
       </c>
-      <c r="M13" s="104">
+      <c r="M13" s="99">
         <v>5</v>
       </c>
-      <c r="N13" s="105">
+      <c r="N13" s="103">
         <v>10002990005</v>
       </c>
-      <c r="O13" s="104">
+      <c r="O13" s="99">
         <v>10000</v>
       </c>
-      <c r="P13" s="105">
+      <c r="P13" s="103">
         <v>10002170009</v>
       </c>
       <c r="Q13" s="73">
@@ -12895,17 +12813,17 @@
       <c r="L14" s="103">
         <v>10022610008</v>
       </c>
-      <c r="M14" s="104">
+      <c r="M14" s="99">
         <v>2</v>
       </c>
-      <c r="N14" s="106">
+      <c r="N14" s="104">
         <v>10002990005</v>
       </c>
-      <c r="O14" s="107">
+      <c r="O14" s="102">
         <v>2000</v>
       </c>
-      <c r="P14" s="107"/>
-      <c r="Q14" s="107"/>
+      <c r="P14" s="102"/>
+      <c r="Q14" s="102"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="100">
@@ -12944,17 +12862,17 @@
       <c r="L15" s="103">
         <v>10022610008</v>
       </c>
-      <c r="M15" s="104">
+      <c r="M15" s="99">
         <v>2</v>
       </c>
-      <c r="N15" s="106">
+      <c r="N15" s="104">
         <v>10002990005</v>
       </c>
-      <c r="O15" s="107">
+      <c r="O15" s="102">
         <v>3000</v>
       </c>
-      <c r="P15" s="106"/>
-      <c r="Q15" s="106"/>
+      <c r="P15" s="104"/>
+      <c r="Q15" s="104"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="100">
@@ -12993,17 +12911,17 @@
       <c r="L16" s="103">
         <v>10022610008</v>
       </c>
-      <c r="M16" s="104">
+      <c r="M16" s="99">
         <v>3</v>
       </c>
-      <c r="N16" s="106">
+      <c r="N16" s="104">
         <v>10002990005</v>
       </c>
-      <c r="O16" s="107">
+      <c r="O16" s="102">
         <v>4000</v>
       </c>
-      <c r="P16" s="106"/>
-      <c r="Q16" s="106"/>
+      <c r="P16" s="104"/>
+      <c r="Q16" s="104"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="100">
@@ -13042,16 +12960,16 @@
       <c r="L17" s="103">
         <v>10022610008</v>
       </c>
-      <c r="M17" s="104">
+      <c r="M17" s="99">
         <v>3</v>
       </c>
-      <c r="N17" s="106">
+      <c r="N17" s="104">
         <v>10002990005</v>
       </c>
-      <c r="O17" s="107">
+      <c r="O17" s="102">
         <v>5000</v>
       </c>
-      <c r="P17" s="106">
+      <c r="P17" s="104">
         <v>10002170008</v>
       </c>
       <c r="Q17" s="73">
@@ -13095,16 +13013,16 @@
       <c r="L18" s="103">
         <v>10022610008</v>
       </c>
-      <c r="M18" s="104">
+      <c r="M18" s="99">
         <v>4</v>
       </c>
-      <c r="N18" s="106">
+      <c r="N18" s="104">
         <v>10002990005</v>
       </c>
-      <c r="O18" s="107">
+      <c r="O18" s="102">
         <v>6000</v>
       </c>
-      <c r="P18" s="106">
+      <c r="P18" s="104">
         <v>10002170011</v>
       </c>
       <c r="Q18" s="73">
@@ -13148,16 +13066,16 @@
       <c r="L19" s="103">
         <v>10022610008</v>
       </c>
-      <c r="M19" s="104">
+      <c r="M19" s="99">
         <v>4</v>
       </c>
-      <c r="N19" s="106">
+      <c r="N19" s="104">
         <v>10002990005</v>
       </c>
-      <c r="O19" s="107">
+      <c r="O19" s="102">
         <v>7000</v>
       </c>
-      <c r="P19" s="106">
+      <c r="P19" s="104">
         <v>10002170010</v>
       </c>
       <c r="Q19" s="73">
@@ -13201,16 +13119,16 @@
       <c r="L20" s="103">
         <v>10022610008</v>
       </c>
-      <c r="M20" s="104">
+      <c r="M20" s="99">
         <v>4</v>
       </c>
-      <c r="N20" s="106">
+      <c r="N20" s="104">
         <v>10002990005</v>
       </c>
-      <c r="O20" s="107">
+      <c r="O20" s="102">
         <v>8000</v>
       </c>
-      <c r="P20" s="106">
+      <c r="P20" s="104">
         <v>10002170007</v>
       </c>
       <c r="Q20" s="73">
@@ -13254,16 +13172,16 @@
       <c r="L21" s="103">
         <v>10022610008</v>
       </c>
-      <c r="M21" s="104">
+      <c r="M21" s="99">
         <v>5</v>
       </c>
-      <c r="N21" s="106">
+      <c r="N21" s="104">
         <v>10002990005</v>
       </c>
-      <c r="O21" s="107">
+      <c r="O21" s="102">
         <v>9000</v>
       </c>
-      <c r="P21" s="106">
+      <c r="P21" s="104">
         <v>10002170012</v>
       </c>
       <c r="Q21" s="73">
@@ -13307,16 +13225,16 @@
       <c r="L22" s="103">
         <v>10022610008</v>
       </c>
-      <c r="M22" s="104">
+      <c r="M22" s="99">
         <v>5</v>
       </c>
-      <c r="N22" s="106">
+      <c r="N22" s="104">
         <v>10002990005</v>
       </c>
-      <c r="O22" s="107">
+      <c r="O22" s="102">
         <v>10000</v>
       </c>
-      <c r="P22" s="106">
+      <c r="P22" s="104">
         <v>10002170009</v>
       </c>
       <c r="Q22" s="73">
@@ -13339,8 +13257,8 @@
   <sheetPr/>
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -13417,16 +13335,16 @@
         <v>195</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>169</v>
+        <v>537</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>173</v>
+        <v>538</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>175</v>
+        <v>539</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>177</v>
+        <v>540</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>179</v>
@@ -25334,7 +25252,7 @@
         <v>780</v>
       </c>
       <c r="C32" s="52"/>
-      <c r="D32" s="202" t="s">
+      <c r="D32" s="194" t="s">
         <v>781</v>
       </c>
       <c r="E32" s="48"/>
@@ -33503,380 +33421,380 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.125" style="145" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="145" customWidth="1"/>
-    <col min="3" max="3" width="7.5" style="145" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="145" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="145" customWidth="1"/>
-    <col min="6" max="6" width="24.875" style="145" customWidth="1"/>
-    <col min="7" max="8" width="12.75" style="145" customWidth="1"/>
-    <col min="9" max="9" width="15.25" style="145" customWidth="1"/>
-    <col min="10" max="10" width="14.75" style="145" customWidth="1"/>
-    <col min="11" max="11" width="14.875" style="146" customWidth="1"/>
-    <col min="12" max="12" width="9" style="145"/>
-    <col min="13" max="13" width="12.75" style="145" customWidth="1"/>
-    <col min="14" max="15" width="15" style="145" customWidth="1"/>
-    <col min="16" max="16" width="13.875" style="145" customWidth="1"/>
-    <col min="17" max="17" width="14.75" style="146" customWidth="1"/>
-    <col min="18" max="19" width="9.5" style="146" customWidth="1"/>
-    <col min="20" max="20" width="22.375" style="145" customWidth="1"/>
-    <col min="21" max="21" width="25" style="145" customWidth="1"/>
-    <col min="22" max="22" width="19" style="145" customWidth="1"/>
-    <col min="23" max="23" width="19.375" style="145" customWidth="1"/>
-    <col min="24" max="24" width="19" style="145" customWidth="1"/>
-    <col min="25" max="25" width="9" style="145"/>
-    <col min="26" max="26" width="25" style="145" customWidth="1"/>
-    <col min="27" max="27" width="17.25" style="145" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="145"/>
+    <col min="1" max="1" width="17.125" style="141" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="141" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="141" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="141" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="141" customWidth="1"/>
+    <col min="6" max="6" width="24.875" style="141" customWidth="1"/>
+    <col min="7" max="8" width="12.75" style="141" customWidth="1"/>
+    <col min="9" max="9" width="15.25" style="141" customWidth="1"/>
+    <col min="10" max="10" width="14.75" style="141" customWidth="1"/>
+    <col min="11" max="11" width="14.875" style="142" customWidth="1"/>
+    <col min="12" max="12" width="9" style="141"/>
+    <col min="13" max="13" width="12.75" style="141" customWidth="1"/>
+    <col min="14" max="15" width="15" style="141" customWidth="1"/>
+    <col min="16" max="16" width="13.875" style="141" customWidth="1"/>
+    <col min="17" max="17" width="14.75" style="142" customWidth="1"/>
+    <col min="18" max="19" width="9.5" style="142" customWidth="1"/>
+    <col min="20" max="20" width="22.375" style="141" customWidth="1"/>
+    <col min="21" max="21" width="25" style="141" customWidth="1"/>
+    <col min="22" max="22" width="19" style="141" customWidth="1"/>
+    <col min="23" max="23" width="19.375" style="141" customWidth="1"/>
+    <col min="24" max="24" width="19" style="141" customWidth="1"/>
+    <col min="25" max="25" width="9" style="141"/>
+    <col min="26" max="26" width="25" style="141" customWidth="1"/>
+    <col min="27" max="27" width="17.25" style="141" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="141"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="122" t="s">
+      <c r="C1" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="147" t="s">
+      <c r="D1" s="143" t="s">
         <v>215</v>
       </c>
-      <c r="E1" s="122" t="s">
+      <c r="E1" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="122" t="s">
+      <c r="F1" s="118" t="s">
         <v>216</v>
       </c>
-      <c r="G1" s="122" t="s">
+      <c r="G1" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="122" t="s">
+      <c r="H1" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="122" t="s">
+      <c r="I1" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="122" t="s">
+      <c r="J1" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="128" t="s">
+      <c r="K1" s="124" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="162" t="s">
+      <c r="L1" s="155" t="s">
         <v>217</v>
       </c>
-      <c r="M1" s="122" t="s">
+      <c r="M1" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="122" t="s">
+      <c r="N1" s="118" t="s">
         <v>218</v>
       </c>
-      <c r="O1" s="122" t="s">
+      <c r="O1" s="118" t="s">
         <v>49</v>
       </c>
-      <c r="P1" s="122" t="s">
+      <c r="P1" s="118" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" s="128" t="s">
+      <c r="Q1" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="R1" s="128" t="s">
+      <c r="R1" s="124" t="s">
         <v>60</v>
       </c>
-      <c r="S1" s="128" t="s">
+      <c r="S1" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="T1" s="122" t="s">
+      <c r="T1" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="U1" s="122" t="s">
+      <c r="U1" s="118" t="s">
         <v>71</v>
       </c>
-      <c r="V1" s="122" t="s">
+      <c r="V1" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="W1" s="122" t="s">
+      <c r="W1" s="118" t="s">
         <v>78</v>
       </c>
-      <c r="X1" s="122" t="s">
+      <c r="X1" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="Y1" s="122" t="s">
+      <c r="Y1" s="118" t="s">
         <v>85</v>
       </c>
-      <c r="Z1" s="176" t="s">
+      <c r="Z1" s="169" t="s">
         <v>219</v>
       </c>
-      <c r="AA1" s="177" t="s">
+      <c r="AA1" s="170" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="2" s="143" customFormat="1" spans="1:27">
-      <c r="A2" s="125" t="s">
+    <row r="2" s="139" customFormat="1" spans="1:27">
+      <c r="A2" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="125" t="s">
+      <c r="C2" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="147" t="s">
+      <c r="D2" s="143" t="s">
         <v>221</v>
       </c>
-      <c r="E2" s="125" t="s">
+      <c r="E2" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="125" t="s">
+      <c r="F2" s="121" t="s">
         <v>222</v>
       </c>
-      <c r="G2" s="125" t="s">
+      <c r="G2" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="125" t="s">
+      <c r="H2" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="125" t="s">
+      <c r="I2" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="125" t="s">
+      <c r="J2" s="121" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="163" t="s">
+      <c r="K2" s="156" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="164" t="s">
+      <c r="L2" s="157" t="s">
         <v>223</v>
       </c>
-      <c r="M2" s="125" t="s">
+      <c r="M2" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="125" t="s">
+      <c r="N2" s="121" t="s">
         <v>224</v>
       </c>
-      <c r="O2" s="125" t="s">
+      <c r="O2" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="125" t="s">
+      <c r="P2" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="Q2" s="163" t="s">
+      <c r="Q2" s="156" t="s">
         <v>57</v>
       </c>
-      <c r="R2" s="163" t="s">
+      <c r="R2" s="156" t="s">
         <v>61</v>
       </c>
-      <c r="S2" s="163" t="s">
+      <c r="S2" s="156" t="s">
         <v>64</v>
       </c>
-      <c r="T2" s="125" t="s">
+      <c r="T2" s="121" t="s">
         <v>68</v>
       </c>
-      <c r="U2" s="125" t="s">
+      <c r="U2" s="121" t="s">
         <v>72</v>
       </c>
-      <c r="V2" s="125" t="s">
+      <c r="V2" s="121" t="s">
         <v>75</v>
       </c>
-      <c r="W2" s="125" t="s">
+      <c r="W2" s="121" t="s">
         <v>79</v>
       </c>
-      <c r="X2" s="125" t="s">
+      <c r="X2" s="121" t="s">
         <v>83</v>
       </c>
-      <c r="Y2" s="125" t="s">
+      <c r="Y2" s="121" t="s">
         <v>86</v>
       </c>
-      <c r="Z2" s="178" t="s">
+      <c r="Z2" s="171" t="s">
         <v>225</v>
       </c>
-      <c r="AA2" s="177" t="s">
+      <c r="AA2" s="170" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="118" t="s">
         <v>227</v>
       </c>
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="118" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="122" t="s">
+      <c r="C3" s="118" t="s">
         <v>210</v>
       </c>
-      <c r="D3" s="148" t="s">
+      <c r="D3" s="144" t="s">
         <v>210</v>
       </c>
-      <c r="E3" s="122" t="s">
+      <c r="E3" s="118" t="s">
         <v>227</v>
       </c>
-      <c r="F3" s="122" t="s">
+      <c r="F3" s="118" t="s">
         <v>211</v>
       </c>
-      <c r="G3" s="122" t="s">
+      <c r="G3" s="118" t="s">
         <v>227</v>
       </c>
-      <c r="H3" s="122" t="s">
+      <c r="H3" s="118" t="s">
         <v>227</v>
       </c>
-      <c r="I3" s="122" t="s">
+      <c r="I3" s="118" t="s">
         <v>210</v>
       </c>
-      <c r="J3" s="122" t="s">
+      <c r="J3" s="118" t="s">
         <v>211</v>
       </c>
-      <c r="K3" s="128" t="s">
+      <c r="K3" s="124" t="s">
         <v>211</v>
       </c>
-      <c r="L3" s="165" t="s">
+      <c r="L3" s="158" t="s">
         <v>211</v>
       </c>
-      <c r="M3" s="122" t="s">
+      <c r="M3" s="118" t="s">
         <v>210</v>
       </c>
-      <c r="N3" s="122" t="s">
+      <c r="N3" s="118" t="s">
         <v>210</v>
       </c>
-      <c r="O3" s="122" t="s">
+      <c r="O3" s="118" t="s">
         <v>210</v>
       </c>
-      <c r="P3" s="122" t="s">
+      <c r="P3" s="118" t="s">
         <v>210</v>
       </c>
-      <c r="Q3" s="128" t="s">
+      <c r="Q3" s="124" t="s">
         <v>211</v>
       </c>
-      <c r="R3" s="128" t="s">
+      <c r="R3" s="124" t="s">
         <v>211</v>
       </c>
-      <c r="S3" s="128" t="s">
+      <c r="S3" s="124" t="s">
         <v>210</v>
       </c>
-      <c r="T3" s="122" t="s">
+      <c r="T3" s="118" t="s">
         <v>210</v>
       </c>
-      <c r="U3" s="122" t="s">
+      <c r="U3" s="118" t="s">
         <v>210</v>
       </c>
-      <c r="V3" s="128" t="s">
+      <c r="V3" s="124" t="s">
         <v>210</v>
       </c>
-      <c r="W3" s="128" t="s">
+      <c r="W3" s="124" t="s">
         <v>211</v>
       </c>
-      <c r="X3" s="122" t="s">
+      <c r="X3" s="118" t="s">
         <v>210</v>
       </c>
-      <c r="Y3" s="122" t="s">
+      <c r="Y3" s="118" t="s">
         <v>210</v>
       </c>
-      <c r="Z3" s="176" t="s">
+      <c r="Z3" s="169" t="s">
         <v>211</v>
       </c>
-      <c r="AA3" s="176" t="s">
+      <c r="AA3" s="169" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="4" s="144" customFormat="1" ht="16.5" spans="1:27">
-      <c r="A4" s="122">
+    <row r="4" s="140" customFormat="1" ht="16.5" spans="1:27">
+      <c r="A4" s="118">
         <v>3</v>
       </c>
-      <c r="B4" s="122">
+      <c r="B4" s="118">
         <v>3</v>
       </c>
-      <c r="C4" s="122">
+      <c r="C4" s="118">
         <v>3</v>
       </c>
-      <c r="D4" s="148">
+      <c r="D4" s="144">
         <v>3</v>
       </c>
-      <c r="E4" s="122">
+      <c r="E4" s="118">
         <v>3</v>
       </c>
-      <c r="F4" s="122">
+      <c r="F4" s="118">
         <v>3</v>
       </c>
-      <c r="G4" s="122">
+      <c r="G4" s="118">
         <v>1</v>
       </c>
-      <c r="H4" s="122">
+      <c r="H4" s="118">
         <v>1</v>
       </c>
-      <c r="I4" s="122">
+      <c r="I4" s="118">
         <v>3</v>
       </c>
-      <c r="J4" s="122">
+      <c r="J4" s="118">
         <v>3</v>
       </c>
-      <c r="K4" s="128">
+      <c r="K4" s="124">
         <v>3</v>
       </c>
-      <c r="L4" s="165">
+      <c r="L4" s="158">
         <v>3</v>
       </c>
-      <c r="M4" s="122">
+      <c r="M4" s="118">
         <v>3</v>
       </c>
-      <c r="N4" s="122">
+      <c r="N4" s="118">
         <v>1</v>
       </c>
-      <c r="O4" s="122">
+      <c r="O4" s="118">
         <v>3</v>
       </c>
-      <c r="P4" s="122">
+      <c r="P4" s="118">
         <v>3</v>
       </c>
-      <c r="Q4" s="128">
+      <c r="Q4" s="124">
         <v>3</v>
       </c>
-      <c r="R4" s="128">
+      <c r="R4" s="124">
         <v>3</v>
       </c>
-      <c r="S4" s="128" t="s">
+      <c r="S4" s="124" t="s">
         <v>228</v>
       </c>
-      <c r="T4" s="122">
+      <c r="T4" s="118">
         <v>2</v>
       </c>
-      <c r="U4" s="122">
+      <c r="U4" s="118">
         <v>2</v>
       </c>
-      <c r="V4" s="122">
+      <c r="V4" s="118">
         <v>3</v>
       </c>
-      <c r="W4" s="122">
+      <c r="W4" s="118">
         <v>1</v>
       </c>
-      <c r="X4" s="122">
+      <c r="X4" s="118">
         <v>1</v>
       </c>
-      <c r="Y4" s="122">
+      <c r="Y4" s="118">
         <v>1</v>
       </c>
-      <c r="Z4" s="179" t="s">
+      <c r="Z4" s="172" t="s">
         <v>229</v>
       </c>
-      <c r="AA4" s="179" t="s">
+      <c r="AA4" s="172" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="5" ht="40.5" spans="1:27">
-      <c r="A5" s="131">
+      <c r="A5" s="127">
         <v>58000000001</v>
       </c>
-      <c r="B5" s="149" t="s">
+      <c r="B5" s="145" t="s">
         <v>230</v>
       </c>
       <c r="C5" s="93">
         <v>2</v>
       </c>
-      <c r="D5" s="150"/>
+      <c r="D5" s="146"/>
       <c r="E5" s="93">
         <v>58000100001</v>
       </c>
-      <c r="F5" s="199" t="s">
+      <c r="F5" s="191" t="s">
         <v>231</v>
       </c>
       <c r="G5" s="93">
@@ -33888,25 +33806,25 @@
       <c r="I5" s="93">
         <v>120</v>
       </c>
-      <c r="J5" s="166" t="s">
+      <c r="J5" s="159" t="s">
         <v>232</v>
       </c>
-      <c r="K5" s="167" t="s">
+      <c r="K5" s="160" t="s">
         <v>233</v>
       </c>
-      <c r="L5" s="168" t="s">
+      <c r="L5" s="161" t="s">
         <v>234</v>
       </c>
-      <c r="M5" s="167" t="s">
+      <c r="M5" s="160" t="s">
         <v>235</v>
       </c>
       <c r="N5" s="93">
         <v>30</v>
       </c>
-      <c r="O5" s="152" t="s">
+      <c r="O5" s="148" t="s">
         <v>236</v>
       </c>
-      <c r="P5" s="152" t="s">
+      <c r="P5" s="148" t="s">
         <v>229</v>
       </c>
       <c r="Q5" s="93"/>
@@ -33914,17 +33832,17 @@
       <c r="S5" s="93">
         <v>0</v>
       </c>
-      <c r="T5" s="169">
+      <c r="T5" s="162">
         <v>5</v>
       </c>
-      <c r="U5" s="169"/>
-      <c r="V5" s="152" t="s">
+      <c r="U5" s="162"/>
+      <c r="V5" s="148" t="s">
         <v>237</v>
       </c>
-      <c r="W5" s="152" t="s">
+      <c r="W5" s="148" t="s">
         <v>238</v>
       </c>
-      <c r="X5" s="152" t="s">
+      <c r="X5" s="148" t="s">
         <v>229</v>
       </c>
       <c r="Y5" s="93">
@@ -33934,10 +33852,10 @@
       <c r="AA5" s="93"/>
     </row>
     <row r="6" ht="40.5" spans="1:27">
-      <c r="A6" s="131">
+      <c r="A6" s="127">
         <v>58000000002</v>
       </c>
-      <c r="B6" s="149" t="s">
+      <c r="B6" s="145" t="s">
         <v>230</v>
       </c>
       <c r="C6" s="93">
@@ -33947,7 +33865,7 @@
       <c r="E6" s="93">
         <v>58000100011</v>
       </c>
-      <c r="F6" s="199" t="s">
+      <c r="F6" s="191" t="s">
         <v>231</v>
       </c>
       <c r="G6" s="93">
@@ -33959,43 +33877,43 @@
       <c r="I6" s="93">
         <v>120</v>
       </c>
-      <c r="J6" s="166" t="s">
+      <c r="J6" s="159" t="s">
         <v>232</v>
       </c>
-      <c r="K6" s="167" t="s">
+      <c r="K6" s="160" t="s">
         <v>233</v>
       </c>
-      <c r="L6" s="168" t="s">
+      <c r="L6" s="161" t="s">
         <v>234</v>
       </c>
-      <c r="M6" s="167" t="s">
+      <c r="M6" s="160" t="s">
         <v>235</v>
       </c>
       <c r="N6" s="93">
         <v>30</v>
       </c>
-      <c r="O6" s="152" t="s">
+      <c r="O6" s="148" t="s">
         <v>236</v>
       </c>
-      <c r="P6" s="152" t="s">
+      <c r="P6" s="148" t="s">
         <v>229</v>
       </c>
       <c r="Q6" s="93"/>
       <c r="R6" s="93"/>
-      <c r="S6" s="152" t="s">
+      <c r="S6" s="148" t="s">
         <v>229</v>
       </c>
       <c r="T6" s="93"/>
       <c r="U6" s="93">
         <v>5</v>
       </c>
-      <c r="V6" s="152" t="s">
+      <c r="V6" s="148" t="s">
         <v>237</v>
       </c>
-      <c r="W6" s="152" t="s">
+      <c r="W6" s="148" t="s">
         <v>238</v>
       </c>
-      <c r="X6" s="152"/>
+      <c r="X6" s="148"/>
       <c r="Y6" s="93">
         <v>2</v>
       </c>
@@ -34003,10 +33921,10 @@
       <c r="AA6" s="93"/>
     </row>
     <row r="7" spans="1:27">
-      <c r="A7" s="131">
+      <c r="A7" s="127">
         <v>58000000003</v>
       </c>
-      <c r="B7" s="152" t="s">
+      <c r="B7" s="148" t="s">
         <v>239</v>
       </c>
       <c r="C7" s="93">
@@ -34016,7 +33934,7 @@
       <c r="E7" s="93">
         <v>14020001107</v>
       </c>
-      <c r="F7" s="153">
+      <c r="F7" s="149">
         <v>14020001107</v>
       </c>
       <c r="G7" s="93">
@@ -34028,41 +33946,41 @@
       <c r="I7" s="93">
         <v>120</v>
       </c>
-      <c r="J7" s="166" t="s">
+      <c r="J7" s="159" t="s">
         <v>240</v>
       </c>
-      <c r="K7" s="167" t="s">
+      <c r="K7" s="160" t="s">
         <v>241</v>
       </c>
-      <c r="L7" s="168" t="s">
+      <c r="L7" s="161" t="s">
         <v>234</v>
       </c>
-      <c r="M7" s="167" t="s">
+      <c r="M7" s="160" t="s">
         <v>242</v>
       </c>
       <c r="N7" s="93">
         <v>30</v>
       </c>
-      <c r="O7" s="152" t="s">
+      <c r="O7" s="148" t="s">
         <v>236</v>
       </c>
-      <c r="P7" s="152" t="s">
+      <c r="P7" s="148" t="s">
         <v>228</v>
       </c>
-      <c r="Q7" s="152"/>
-      <c r="R7" s="152"/>
-      <c r="S7" s="152" t="s">
+      <c r="Q7" s="148"/>
+      <c r="R7" s="148"/>
+      <c r="S7" s="148" t="s">
         <v>237</v>
       </c>
       <c r="T7" s="93"/>
       <c r="U7" s="93"/>
-      <c r="V7" s="152" t="s">
+      <c r="V7" s="148" t="s">
         <v>237</v>
       </c>
-      <c r="W7" s="152" t="s">
+      <c r="W7" s="148" t="s">
         <v>243</v>
       </c>
-      <c r="X7" s="152" t="s">
+      <c r="X7" s="148" t="s">
         <v>229</v>
       </c>
       <c r="Y7" s="93">
@@ -34072,10 +33990,10 @@
       <c r="AA7" s="93"/>
     </row>
     <row r="8" spans="1:27">
-      <c r="A8" s="131">
+      <c r="A8" s="127">
         <v>58000000004</v>
       </c>
-      <c r="B8" s="152" t="s">
+      <c r="B8" s="148" t="s">
         <v>244</v>
       </c>
       <c r="C8" s="93">
@@ -34083,7 +34001,7 @@
       </c>
       <c r="D8" s="93"/>
       <c r="E8" s="93"/>
-      <c r="F8" s="153">
+      <c r="F8" s="149">
         <v>14020001108</v>
       </c>
       <c r="G8" s="93">
@@ -34095,41 +34013,41 @@
       <c r="I8" s="93">
         <v>120</v>
       </c>
-      <c r="J8" s="166" t="s">
+      <c r="J8" s="159" t="s">
         <v>245</v>
       </c>
-      <c r="K8" s="167" t="s">
+      <c r="K8" s="160" t="s">
         <v>233</v>
       </c>
-      <c r="L8" s="168" t="s">
+      <c r="L8" s="161" t="s">
         <v>234</v>
       </c>
-      <c r="M8" s="167" t="s">
+      <c r="M8" s="160" t="s">
         <v>246</v>
       </c>
       <c r="N8" s="93">
         <v>30</v>
       </c>
-      <c r="O8" s="152" t="s">
+      <c r="O8" s="148" t="s">
         <v>247</v>
       </c>
-      <c r="P8" s="152" t="s">
+      <c r="P8" s="148" t="s">
         <v>248</v>
       </c>
-      <c r="Q8" s="152"/>
-      <c r="R8" s="152"/>
+      <c r="Q8" s="148"/>
+      <c r="R8" s="148"/>
       <c r="S8" s="93">
         <v>1</v>
       </c>
-      <c r="T8" s="152"/>
+      <c r="T8" s="148"/>
       <c r="U8" s="93"/>
-      <c r="V8" s="152" t="s">
+      <c r="V8" s="148" t="s">
         <v>237</v>
       </c>
-      <c r="W8" s="152" t="s">
+      <c r="W8" s="148" t="s">
         <v>249</v>
       </c>
-      <c r="X8" s="152" t="s">
+      <c r="X8" s="148" t="s">
         <v>229</v>
       </c>
       <c r="Y8" s="93">
@@ -34139,7 +34057,7 @@
       <c r="AA8" s="93"/>
     </row>
     <row r="9" spans="1:27">
-      <c r="A9" s="131">
+      <c r="A9" s="127">
         <v>58000000005</v>
       </c>
       <c r="B9" s="30" t="s">
@@ -34151,10 +34069,10 @@
       <c r="D9" s="93">
         <v>2</v>
       </c>
-      <c r="E9" s="154">
+      <c r="E9" s="150">
         <v>0</v>
       </c>
-      <c r="F9" s="155">
+      <c r="F9" s="147">
         <v>14020001118</v>
       </c>
       <c r="G9" s="93"/>
@@ -34164,17 +34082,17 @@
       <c r="I9" s="93">
         <v>120</v>
       </c>
-      <c r="J9" s="166" t="s">
+      <c r="J9" s="159" t="s">
         <v>251</v>
       </c>
-      <c r="K9" s="167" t="s">
+      <c r="K9" s="160" t="s">
         <v>252</v>
       </c>
-      <c r="L9" s="166"/>
-      <c r="M9" s="166">
+      <c r="L9" s="159"/>
+      <c r="M9" s="159">
         <v>30</v>
       </c>
-      <c r="N9" s="169">
+      <c r="N9" s="162">
         <v>300</v>
       </c>
       <c r="O9" s="93">
@@ -34191,7 +34109,7 @@
       <c r="T9" s="93"/>
       <c r="U9" s="93"/>
       <c r="V9" s="93"/>
-      <c r="W9" s="116" t="s">
+      <c r="W9" s="110" t="s">
         <v>253</v>
       </c>
       <c r="X9" s="93">
@@ -34200,15 +34118,15 @@
       <c r="Y9" s="93">
         <v>5</v>
       </c>
-      <c r="Z9" s="156" t="s">
+      <c r="Z9" s="150" t="s">
         <v>254</v>
       </c>
-      <c r="AA9" s="180" t="s">
+      <c r="AA9" s="146" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:27">
-      <c r="A10" s="131">
+      <c r="A10" s="127">
         <v>58000000006</v>
       </c>
       <c r="B10" s="93" t="s">
@@ -34223,7 +34141,7 @@
       <c r="E10" s="93">
         <v>120</v>
       </c>
-      <c r="F10" s="153">
+      <c r="F10" s="149">
         <v>14020001056</v>
       </c>
       <c r="G10" s="93"/>
@@ -34233,19 +34151,19 @@
       <c r="I10" s="93">
         <v>120</v>
       </c>
-      <c r="J10" s="166" t="s">
+      <c r="J10" s="159" t="s">
         <v>257</v>
       </c>
-      <c r="K10" s="167" t="s">
+      <c r="K10" s="160" t="s">
         <v>252</v>
       </c>
-      <c r="L10" s="168" t="s">
+      <c r="L10" s="161" t="s">
         <v>234</v>
       </c>
-      <c r="M10" s="166">
+      <c r="M10" s="159">
         <v>30</v>
       </c>
-      <c r="N10" s="169">
+      <c r="N10" s="162">
         <v>300</v>
       </c>
       <c r="O10" s="93">
@@ -34264,7 +34182,7 @@
       <c r="V10" s="93">
         <v>3</v>
       </c>
-      <c r="W10" s="170" t="s">
+      <c r="W10" s="163" t="s">
         <v>258</v>
       </c>
       <c r="X10" s="93">
@@ -34276,15 +34194,15 @@
       <c r="Z10" s="93" t="s">
         <v>254</v>
       </c>
-      <c r="AA10" s="156" t="s">
+      <c r="AA10" s="150" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:27">
-      <c r="A11" s="131">
+      <c r="A11" s="127">
         <v>58000000007</v>
       </c>
-      <c r="B11" s="156" t="s">
+      <c r="B11" s="150" t="s">
         <v>260</v>
       </c>
       <c r="C11" s="93">
@@ -34294,7 +34212,7 @@
       <c r="E11" s="93">
         <v>14020001115</v>
       </c>
-      <c r="F11" s="153">
+      <c r="F11" s="149">
         <v>14020001115</v>
       </c>
       <c r="G11" s="93">
@@ -34306,14 +34224,14 @@
       <c r="I11" s="93">
         <v>180</v>
       </c>
-      <c r="J11" s="166" t="s">
+      <c r="J11" s="159" t="s">
         <v>261</v>
       </c>
-      <c r="K11" s="167" t="s">
+      <c r="K11" s="160" t="s">
         <v>233</v>
       </c>
-      <c r="L11" s="166"/>
-      <c r="M11" s="166">
+      <c r="L11" s="159"/>
+      <c r="M11" s="159">
         <v>40</v>
       </c>
       <c r="N11" s="93">
@@ -34325,9 +34243,9 @@
       <c r="P11" s="93">
         <v>5</v>
       </c>
-      <c r="Q11" s="152"/>
-      <c r="R11" s="152"/>
-      <c r="S11" s="170" t="s">
+      <c r="Q11" s="148"/>
+      <c r="R11" s="148"/>
+      <c r="S11" s="163" t="s">
         <v>229</v>
       </c>
       <c r="T11" s="93"/>
@@ -34335,7 +34253,7 @@
       <c r="V11" s="93">
         <v>0</v>
       </c>
-      <c r="W11" s="152" t="s">
+      <c r="W11" s="148" t="s">
         <v>262</v>
       </c>
       <c r="X11" s="93">
@@ -34348,7 +34266,7 @@
       <c r="AA11" s="93"/>
     </row>
     <row r="12" spans="1:27">
-      <c r="A12" s="131">
+      <c r="A12" s="127">
         <v>58000000008</v>
       </c>
       <c r="B12" s="93" t="s">
@@ -34361,26 +34279,26 @@
       <c r="E12" s="93">
         <v>14020001116</v>
       </c>
-      <c r="F12" s="200" t="s">
+      <c r="F12" s="192" t="s">
         <v>264</v>
       </c>
       <c r="G12" s="93">
         <v>119</v>
       </c>
-      <c r="H12" s="158">
+      <c r="H12" s="31">
         <v>19</v>
       </c>
-      <c r="I12" s="169">
+      <c r="I12" s="162">
         <v>100</v>
       </c>
-      <c r="J12" s="166" t="s">
+      <c r="J12" s="159" t="s">
         <v>265</v>
       </c>
-      <c r="K12" s="167" t="s">
+      <c r="K12" s="160" t="s">
         <v>266</v>
       </c>
-      <c r="L12" s="166"/>
-      <c r="M12" s="166">
+      <c r="L12" s="159"/>
+      <c r="M12" s="159">
         <v>780</v>
       </c>
       <c r="N12" s="93"/>
@@ -34390,9 +34308,9 @@
       <c r="P12" s="93">
         <v>5</v>
       </c>
-      <c r="Q12" s="152"/>
-      <c r="R12" s="152"/>
-      <c r="S12" s="170" t="s">
+      <c r="Q12" s="148"/>
+      <c r="R12" s="148"/>
+      <c r="S12" s="163" t="s">
         <v>229</v>
       </c>
       <c r="T12" s="93"/>
@@ -34400,7 +34318,7 @@
       <c r="V12" s="93">
         <v>0</v>
       </c>
-      <c r="W12" s="116" t="s">
+      <c r="W12" s="110" t="s">
         <v>267</v>
       </c>
       <c r="X12" s="93">
@@ -34413,7 +34331,7 @@
       <c r="AA12" s="93"/>
     </row>
     <row r="13" spans="1:27">
-      <c r="A13" s="131">
+      <c r="A13" s="127">
         <v>58000000009</v>
       </c>
       <c r="B13" s="93" t="s">
@@ -34424,7 +34342,7 @@
       </c>
       <c r="D13" s="93"/>
       <c r="E13" s="93"/>
-      <c r="F13" s="153">
+      <c r="F13" s="149">
         <v>14020001119</v>
       </c>
       <c r="G13" s="93">
@@ -34436,14 +34354,14 @@
       <c r="I13" s="93">
         <v>160</v>
       </c>
-      <c r="J13" s="166" t="s">
+      <c r="J13" s="159" t="s">
         <v>269</v>
       </c>
-      <c r="K13" s="167" t="s">
+      <c r="K13" s="160" t="s">
         <v>270</v>
       </c>
-      <c r="L13" s="166"/>
-      <c r="M13" s="166">
+      <c r="L13" s="159"/>
+      <c r="M13" s="159">
         <v>1075</v>
       </c>
       <c r="N13" s="93">
@@ -34455,9 +34373,9 @@
       <c r="P13" s="93">
         <v>5</v>
       </c>
-      <c r="Q13" s="152"/>
-      <c r="R13" s="152"/>
-      <c r="S13" s="152" t="s">
+      <c r="Q13" s="148"/>
+      <c r="R13" s="148"/>
+      <c r="S13" s="148" t="s">
         <v>229</v>
       </c>
       <c r="T13" s="93"/>
@@ -34465,7 +34383,7 @@
       <c r="V13" s="93">
         <v>0</v>
       </c>
-      <c r="W13" s="116" t="s">
+      <c r="W13" s="110" t="s">
         <v>271</v>
       </c>
       <c r="X13" s="93">
@@ -34480,7 +34398,7 @@
       </c>
     </row>
     <row r="14" spans="1:27">
-      <c r="A14" s="131">
+      <c r="A14" s="127">
         <v>58000000010</v>
       </c>
       <c r="B14" s="30" t="s">
@@ -34493,7 +34411,7 @@
       <c r="E14" s="93">
         <v>49000006061</v>
       </c>
-      <c r="F14" s="153">
+      <c r="F14" s="149">
         <v>14020001122</v>
       </c>
       <c r="G14" s="93">
@@ -34505,14 +34423,14 @@
       <c r="I14" s="93">
         <v>150</v>
       </c>
-      <c r="J14" s="166" t="s">
+      <c r="J14" s="159" t="s">
         <v>274</v>
       </c>
-      <c r="K14" s="167" t="s">
+      <c r="K14" s="160" t="s">
         <v>241</v>
       </c>
-      <c r="L14" s="166"/>
-      <c r="M14" s="166">
+      <c r="L14" s="159"/>
+      <c r="M14" s="159">
         <v>30</v>
       </c>
       <c r="N14" s="93">
@@ -34524,9 +34442,9 @@
       <c r="P14" s="93">
         <v>5</v>
       </c>
-      <c r="Q14" s="152"/>
-      <c r="R14" s="152"/>
-      <c r="S14" s="152" t="s">
+      <c r="Q14" s="148"/>
+      <c r="R14" s="148"/>
+      <c r="S14" s="148" t="s">
         <v>229</v>
       </c>
       <c r="T14" s="93"/>
@@ -34534,7 +34452,7 @@
       <c r="V14" s="93">
         <v>0</v>
       </c>
-      <c r="W14" s="116" t="s">
+      <c r="W14" s="110" t="s">
         <v>275</v>
       </c>
       <c r="X14" s="93">
@@ -34551,7 +34469,7 @@
       </c>
     </row>
     <row r="15" spans="1:27">
-      <c r="A15" s="131">
+      <c r="A15" s="127">
         <v>58000000011</v>
       </c>
       <c r="B15" s="93" t="s">
@@ -34562,7 +34480,7 @@
       </c>
       <c r="D15" s="93"/>
       <c r="E15" s="93"/>
-      <c r="F15" s="199" t="s">
+      <c r="F15" s="191" t="s">
         <v>278</v>
       </c>
       <c r="G15" s="93"/>
@@ -34573,7 +34491,7 @@
       <c r="J15" s="93" t="s">
         <v>269</v>
       </c>
-      <c r="K15" s="152" t="s">
+      <c r="K15" s="148" t="s">
         <v>279</v>
       </c>
       <c r="L15" s="93"/>
@@ -34589,9 +34507,9 @@
       <c r="P15" s="93">
         <v>5</v>
       </c>
-      <c r="Q15" s="152"/>
-      <c r="R15" s="152"/>
-      <c r="S15" s="152" t="s">
+      <c r="Q15" s="148"/>
+      <c r="R15" s="148"/>
+      <c r="S15" s="148" t="s">
         <v>237</v>
       </c>
       <c r="T15" s="93"/>
@@ -34599,7 +34517,7 @@
       <c r="V15" s="93">
         <v>0</v>
       </c>
-      <c r="W15" s="174" t="s">
+      <c r="W15" s="167" t="s">
         <v>280</v>
       </c>
       <c r="X15" s="93">
@@ -34612,10 +34530,10 @@
       <c r="AA15" s="93"/>
     </row>
     <row r="16" spans="1:27">
-      <c r="A16" s="131">
+      <c r="A16" s="127">
         <v>58000000012</v>
       </c>
-      <c r="B16" s="156" t="s">
+      <c r="B16" s="150" t="s">
         <v>281</v>
       </c>
       <c r="C16" s="93">
@@ -34625,7 +34543,7 @@
       <c r="E16" s="93">
         <v>49000006062</v>
       </c>
-      <c r="F16" s="159">
+      <c r="F16" s="152">
         <v>14020001125</v>
       </c>
       <c r="G16" s="93"/>
@@ -34638,7 +34556,7 @@
       <c r="J16" s="93" t="s">
         <v>269</v>
       </c>
-      <c r="K16" s="170" t="s">
+      <c r="K16" s="163" t="s">
         <v>282</v>
       </c>
       <c r="L16" s="93"/>
@@ -34654,9 +34572,9 @@
       <c r="P16" s="93">
         <v>5</v>
       </c>
-      <c r="Q16" s="152"/>
-      <c r="R16" s="152"/>
-      <c r="S16" s="152" t="s">
+      <c r="Q16" s="148"/>
+      <c r="R16" s="148"/>
+      <c r="S16" s="148" t="s">
         <v>237</v>
       </c>
       <c r="T16" s="93"/>
@@ -34664,7 +34582,7 @@
       <c r="V16" s="93">
         <v>0</v>
       </c>
-      <c r="W16" s="175" t="s">
+      <c r="W16" s="168" t="s">
         <v>283</v>
       </c>
       <c r="X16" s="93">
@@ -34676,15 +34594,15 @@
       <c r="Z16" s="93" t="s">
         <v>254</v>
       </c>
-      <c r="AA16" s="156" t="s">
+      <c r="AA16" s="150" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:27">
-      <c r="A17" s="131">
+      <c r="A17" s="127">
         <v>58000000013</v>
       </c>
-      <c r="B17" s="156" t="s">
+      <c r="B17" s="150" t="s">
         <v>285</v>
       </c>
       <c r="C17" s="93">
@@ -34692,7 +34610,7 @@
       </c>
       <c r="D17" s="93"/>
       <c r="E17" s="93"/>
-      <c r="F17" s="159">
+      <c r="F17" s="152">
         <v>14020001126</v>
       </c>
       <c r="G17" s="93"/>
@@ -34705,7 +34623,7 @@
       <c r="J17" s="93" t="s">
         <v>269</v>
       </c>
-      <c r="K17" s="152" t="s">
+      <c r="K17" s="148" t="s">
         <v>286</v>
       </c>
       <c r="L17" s="93"/>
@@ -34721,9 +34639,9 @@
       <c r="P17" s="93">
         <v>5</v>
       </c>
-      <c r="Q17" s="152"/>
-      <c r="R17" s="152"/>
-      <c r="S17" s="170" t="s">
+      <c r="Q17" s="148"/>
+      <c r="R17" s="148"/>
+      <c r="S17" s="163" t="s">
         <v>237</v>
       </c>
       <c r="T17" s="93"/>
@@ -34731,7 +34649,7 @@
       <c r="V17" s="93">
         <v>0</v>
       </c>
-      <c r="W17" s="175" t="s">
+      <c r="W17" s="168" t="s">
         <v>287</v>
       </c>
       <c r="X17" s="93">
@@ -34743,15 +34661,15 @@
       <c r="Z17" s="93" t="s">
         <v>254</v>
       </c>
-      <c r="AA17" s="156" t="s">
+      <c r="AA17" s="150" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:27">
-      <c r="A18" s="131">
+      <c r="A18" s="127">
         <v>58000000014</v>
       </c>
-      <c r="B18" s="156" t="s">
+      <c r="B18" s="150" t="s">
         <v>289</v>
       </c>
       <c r="C18" s="93">
@@ -34761,16 +34679,16 @@
       <c r="E18" s="93">
         <v>14020001143</v>
       </c>
-      <c r="F18" s="159"/>
+      <c r="F18" s="152"/>
       <c r="G18" s="93"/>
       <c r="H18" s="93"/>
       <c r="I18" s="93">
         <v>300</v>
       </c>
-      <c r="J18" s="171" t="s">
+      <c r="J18" s="164" t="s">
         <v>290</v>
       </c>
-      <c r="K18" s="172" t="s">
+      <c r="K18" s="165" t="s">
         <v>291</v>
       </c>
       <c r="L18" s="93"/>
@@ -34786,9 +34704,9 @@
       <c r="P18" s="93">
         <v>5</v>
       </c>
-      <c r="Q18" s="152"/>
-      <c r="R18" s="152"/>
-      <c r="S18" s="170" t="s">
+      <c r="Q18" s="148"/>
+      <c r="R18" s="148"/>
+      <c r="S18" s="163" t="s">
         <v>229</v>
       </c>
       <c r="T18" s="93"/>
@@ -34796,7 +34714,7 @@
       <c r="V18" s="93">
         <v>0</v>
       </c>
-      <c r="W18" s="175" t="s">
+      <c r="W18" s="168" t="s">
         <v>292</v>
       </c>
       <c r="X18" s="93">
@@ -34806,13 +34724,13 @@
         <v>14</v>
       </c>
       <c r="Z18" s="93"/>
-      <c r="AA18" s="156"/>
+      <c r="AA18" s="150"/>
     </row>
     <row r="19" spans="1:27">
-      <c r="A19" s="131">
+      <c r="A19" s="127">
         <v>58000000015</v>
       </c>
-      <c r="B19" s="156" t="s">
+      <c r="B19" s="150" t="s">
         <v>293</v>
       </c>
       <c r="C19" s="93">
@@ -34824,13 +34742,13 @@
       <c r="G19" s="93"/>
       <c r="H19" s="93"/>
       <c r="I19" s="93"/>
-      <c r="J19" s="171" t="s">
+      <c r="J19" s="164" t="s">
         <v>251</v>
       </c>
-      <c r="K19" s="172" t="s">
+      <c r="K19" s="165" t="s">
         <v>291</v>
       </c>
-      <c r="L19" s="152"/>
+      <c r="L19" s="148"/>
       <c r="M19" s="93">
         <v>30</v>
       </c>
@@ -34853,7 +34771,7 @@
       <c r="V19" s="93">
         <v>0</v>
       </c>
-      <c r="W19" s="175" t="s">
+      <c r="W19" s="168" t="s">
         <v>294</v>
       </c>
       <c r="X19" s="93">
@@ -34866,10 +34784,10 @@
       <c r="AA19" s="93"/>
     </row>
     <row r="20" spans="1:27">
-      <c r="A20" s="131">
+      <c r="A20" s="127">
         <v>58000000016</v>
       </c>
-      <c r="B20" s="156" t="s">
+      <c r="B20" s="150" t="s">
         <v>295</v>
       </c>
       <c r="C20" s="93">
@@ -34879,23 +34797,23 @@
       <c r="E20">
         <v>14020001144</v>
       </c>
-      <c r="F20" s="160">
+      <c r="F20" s="153">
         <v>14020001144</v>
       </c>
       <c r="G20" s="93"/>
       <c r="H20" s="93">
         <v>47</v>
       </c>
-      <c r="I20" s="173">
+      <c r="I20" s="166">
         <v>100</v>
       </c>
-      <c r="J20" s="171" t="s">
+      <c r="J20" s="164" t="s">
         <v>296</v>
       </c>
-      <c r="K20" s="172" t="s">
+      <c r="K20" s="165" t="s">
         <v>297</v>
       </c>
-      <c r="L20" s="152"/>
+      <c r="L20" s="148"/>
       <c r="M20" s="93">
         <v>10</v>
       </c>
@@ -34918,7 +34836,7 @@
       <c r="V20" s="93">
         <v>0</v>
       </c>
-      <c r="W20" s="175" t="s">
+      <c r="W20" s="168" t="s">
         <v>298</v>
       </c>
       <c r="X20" s="93">
@@ -34931,10 +34849,10 @@
       <c r="AA20" s="93"/>
     </row>
     <row r="21" spans="1:27">
-      <c r="A21" s="131">
+      <c r="A21" s="127">
         <v>58000000017</v>
       </c>
-      <c r="B21" s="156" t="s">
+      <c r="B21" s="150" t="s">
         <v>299</v>
       </c>
       <c r="C21" s="93">
@@ -34944,23 +34862,23 @@
       <c r="E21" s="93">
         <v>49000000119</v>
       </c>
-      <c r="F21" s="160">
+      <c r="F21" s="153">
         <v>14020001145</v>
       </c>
       <c r="G21" s="93"/>
       <c r="H21" s="93">
         <v>48</v>
       </c>
-      <c r="I21" s="173">
+      <c r="I21" s="166">
         <v>200</v>
       </c>
-      <c r="J21" s="171" t="s">
+      <c r="J21" s="164" t="s">
         <v>269</v>
       </c>
-      <c r="K21" s="172" t="s">
+      <c r="K21" s="165" t="s">
         <v>300</v>
       </c>
-      <c r="L21" s="152"/>
+      <c r="L21" s="148"/>
       <c r="M21" s="93">
         <v>10</v>
       </c>
@@ -34983,7 +34901,7 @@
       <c r="V21" s="93">
         <v>0</v>
       </c>
-      <c r="W21" s="175" t="s">
+      <c r="W21" s="168" t="s">
         <v>301</v>
       </c>
       <c r="X21" s="93">
@@ -34996,59 +34914,59 @@
       <c r="AA21" s="93"/>
     </row>
     <row r="22" spans="8:19">
-      <c r="H22" s="146"/>
-      <c r="I22" s="146"/>
-      <c r="K22" s="145"/>
-      <c r="Q22" s="145"/>
-      <c r="R22" s="145"/>
-      <c r="S22" s="145"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="142"/>
+      <c r="K22" s="141"/>
+      <c r="Q22" s="141"/>
+      <c r="R22" s="141"/>
+      <c r="S22" s="141"/>
     </row>
     <row r="23" spans="8:19">
-      <c r="H23" s="146"/>
-      <c r="I23" s="146"/>
-      <c r="K23" s="145"/>
-      <c r="Q23" s="145"/>
-      <c r="R23" s="145"/>
-      <c r="S23" s="145"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="142"/>
+      <c r="K23" s="141"/>
+      <c r="Q23" s="141"/>
+      <c r="R23" s="141"/>
+      <c r="S23" s="141"/>
     </row>
     <row r="24" spans="8:19">
-      <c r="H24" s="146"/>
-      <c r="I24" s="146"/>
-      <c r="K24" s="145"/>
-      <c r="Q24" s="145"/>
-      <c r="R24" s="145"/>
-      <c r="S24" s="145"/>
+      <c r="H24" s="142"/>
+      <c r="I24" s="142"/>
+      <c r="K24" s="141"/>
+      <c r="Q24" s="141"/>
+      <c r="R24" s="141"/>
+      <c r="S24" s="141"/>
     </row>
     <row r="25" spans="10:19">
-      <c r="J25" s="146"/>
-      <c r="L25" s="146"/>
-      <c r="Q25" s="145"/>
-      <c r="R25" s="145"/>
-      <c r="S25" s="145"/>
+      <c r="J25" s="142"/>
+      <c r="L25" s="142"/>
+      <c r="Q25" s="141"/>
+      <c r="R25" s="141"/>
+      <c r="S25" s="141"/>
     </row>
     <row r="26" spans="10:19">
-      <c r="J26" s="146"/>
-      <c r="L26" s="146"/>
-      <c r="Q26" s="145"/>
-      <c r="R26" s="145"/>
-      <c r="S26" s="145"/>
+      <c r="J26" s="142"/>
+      <c r="L26" s="142"/>
+      <c r="Q26" s="141"/>
+      <c r="R26" s="141"/>
+      <c r="S26" s="141"/>
     </row>
     <row r="27" spans="10:19">
-      <c r="J27" s="146"/>
-      <c r="L27" s="146"/>
-      <c r="Q27" s="145"/>
-      <c r="R27" s="145"/>
-      <c r="S27" s="145"/>
+      <c r="J27" s="142"/>
+      <c r="L27" s="142"/>
+      <c r="Q27" s="141"/>
+      <c r="R27" s="141"/>
+      <c r="S27" s="141"/>
     </row>
     <row r="28" spans="10:19">
-      <c r="J28" s="146"/>
-      <c r="L28" s="146"/>
-      <c r="Q28" s="145"/>
-      <c r="R28" s="145"/>
-      <c r="S28" s="145"/>
+      <c r="J28" s="142"/>
+      <c r="L28" s="142"/>
+      <c r="Q28" s="141"/>
+      <c r="R28" s="141"/>
+      <c r="S28" s="141"/>
     </row>
     <row r="30" spans="6:6">
-      <c r="F30" s="161"/>
+      <c r="F30" s="154"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A6">
@@ -35118,298 +35036,298 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.5" spans="1:24">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="118" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="122" t="s">
+      <c r="C1" s="118" t="s">
         <v>302</v>
       </c>
-      <c r="D1" s="122" t="s">
+      <c r="D1" s="118" t="s">
         <v>303</v>
       </c>
-      <c r="E1" s="122" t="s">
+      <c r="E1" s="118" t="s">
         <v>304</v>
       </c>
-      <c r="F1" s="122" t="s">
+      <c r="F1" s="118" t="s">
         <v>305</v>
       </c>
-      <c r="G1" s="122" t="s">
+      <c r="G1" s="118" t="s">
         <v>304</v>
       </c>
-      <c r="H1" s="122" t="s">
+      <c r="H1" s="118" t="s">
         <v>305</v>
       </c>
-      <c r="I1" s="122" t="s">
+      <c r="I1" s="118" t="s">
         <v>304</v>
       </c>
-      <c r="J1" s="122" t="s">
+      <c r="J1" s="118" t="s">
         <v>305</v>
       </c>
-      <c r="K1" s="122" t="s">
+      <c r="K1" s="118" t="s">
         <v>304</v>
       </c>
-      <c r="L1" s="122" t="s">
+      <c r="L1" s="118" t="s">
         <v>305</v>
       </c>
-      <c r="M1" s="122" t="s">
+      <c r="M1" s="118" t="s">
         <v>304</v>
       </c>
-      <c r="N1" s="122" t="s">
+      <c r="N1" s="118" t="s">
         <v>305</v>
       </c>
-      <c r="O1" s="122" t="s">
+      <c r="O1" s="118" t="s">
         <v>304</v>
       </c>
-      <c r="P1" s="122" t="s">
+      <c r="P1" s="118" t="s">
         <v>305</v>
       </c>
-      <c r="Q1" s="122" t="s">
+      <c r="Q1" s="118" t="s">
         <v>304</v>
       </c>
-      <c r="R1" s="122" t="s">
+      <c r="R1" s="118" t="s">
         <v>305</v>
       </c>
-      <c r="S1" s="122" t="s">
+      <c r="S1" s="118" t="s">
         <v>304</v>
       </c>
-      <c r="T1" s="122" t="s">
+      <c r="T1" s="118" t="s">
         <v>305</v>
       </c>
-      <c r="U1" s="122" t="s">
+      <c r="U1" s="118" t="s">
         <v>304</v>
       </c>
-      <c r="V1" s="122" t="s">
+      <c r="V1" s="118" t="s">
         <v>305</v>
       </c>
-      <c r="W1" s="122" t="s">
+      <c r="W1" s="118" t="s">
         <v>304</v>
       </c>
-      <c r="X1" s="122" t="s">
+      <c r="X1" s="118" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="2" ht="13.5" spans="1:24">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="121" t="s">
         <v>306</v>
       </c>
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="125" t="s">
+      <c r="C2" s="121" t="s">
         <v>307</v>
       </c>
-      <c r="D2" s="125" t="s">
+      <c r="D2" s="121" t="s">
         <v>308</v>
       </c>
-      <c r="E2" s="125" t="s">
+      <c r="E2" s="121" t="s">
         <v>309</v>
       </c>
-      <c r="F2" s="125" t="s">
+      <c r="F2" s="121" t="s">
         <v>310</v>
       </c>
-      <c r="G2" s="125" t="s">
+      <c r="G2" s="121" t="s">
         <v>311</v>
       </c>
-      <c r="H2" s="125" t="s">
+      <c r="H2" s="121" t="s">
         <v>312</v>
       </c>
-      <c r="I2" s="125" t="s">
+      <c r="I2" s="121" t="s">
         <v>313</v>
       </c>
-      <c r="J2" s="125" t="s">
+      <c r="J2" s="121" t="s">
         <v>314</v>
       </c>
-      <c r="K2" s="125" t="s">
+      <c r="K2" s="121" t="s">
         <v>315</v>
       </c>
-      <c r="L2" s="125" t="s">
+      <c r="L2" s="121" t="s">
         <v>316</v>
       </c>
-      <c r="M2" s="125" t="s">
+      <c r="M2" s="121" t="s">
         <v>317</v>
       </c>
-      <c r="N2" s="125" t="s">
+      <c r="N2" s="121" t="s">
         <v>318</v>
       </c>
-      <c r="O2" s="125" t="s">
+      <c r="O2" s="121" t="s">
         <v>319</v>
       </c>
-      <c r="P2" s="125" t="s">
+      <c r="P2" s="121" t="s">
         <v>320</v>
       </c>
-      <c r="Q2" s="125" t="s">
+      <c r="Q2" s="121" t="s">
         <v>321</v>
       </c>
-      <c r="R2" s="125" t="s">
+      <c r="R2" s="121" t="s">
         <v>322</v>
       </c>
-      <c r="S2" s="125" t="s">
+      <c r="S2" s="121" t="s">
         <v>323</v>
       </c>
-      <c r="T2" s="125" t="s">
+      <c r="T2" s="121" t="s">
         <v>324</v>
       </c>
-      <c r="U2" s="125" t="s">
+      <c r="U2" s="121" t="s">
         <v>325</v>
       </c>
-      <c r="V2" s="125" t="s">
+      <c r="V2" s="121" t="s">
         <v>326</v>
       </c>
-      <c r="W2" s="125" t="s">
+      <c r="W2" s="121" t="s">
         <v>327</v>
       </c>
-      <c r="X2" s="125" t="s">
+      <c r="X2" s="121" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="3" ht="13.5" spans="1:24">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="118" t="s">
         <v>210</v>
       </c>
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="118" t="s">
         <v>227</v>
       </c>
-      <c r="C3" s="122" t="s">
+      <c r="C3" s="118" t="s">
         <v>211</v>
       </c>
-      <c r="D3" s="122" t="s">
+      <c r="D3" s="118" t="s">
         <v>211</v>
       </c>
-      <c r="E3" s="122" t="s">
+      <c r="E3" s="118" t="s">
         <v>227</v>
       </c>
-      <c r="F3" s="122" t="s">
+      <c r="F3" s="118" t="s">
         <v>210</v>
       </c>
-      <c r="G3" s="122" t="s">
+      <c r="G3" s="118" t="s">
         <v>227</v>
       </c>
-      <c r="H3" s="122" t="s">
+      <c r="H3" s="118" t="s">
         <v>210</v>
       </c>
-      <c r="I3" s="122" t="s">
+      <c r="I3" s="118" t="s">
         <v>227</v>
       </c>
-      <c r="J3" s="122" t="s">
+      <c r="J3" s="118" t="s">
         <v>210</v>
       </c>
-      <c r="K3" s="122" t="s">
+      <c r="K3" s="118" t="s">
         <v>227</v>
       </c>
-      <c r="L3" s="122" t="s">
+      <c r="L3" s="118" t="s">
         <v>210</v>
       </c>
-      <c r="M3" s="122" t="s">
+      <c r="M3" s="118" t="s">
         <v>227</v>
       </c>
-      <c r="N3" s="122" t="s">
+      <c r="N3" s="118" t="s">
         <v>210</v>
       </c>
-      <c r="O3" s="122" t="s">
+      <c r="O3" s="118" t="s">
         <v>227</v>
       </c>
-      <c r="P3" s="122" t="s">
+      <c r="P3" s="118" t="s">
         <v>210</v>
       </c>
-      <c r="Q3" s="122" t="s">
+      <c r="Q3" s="118" t="s">
         <v>329</v>
       </c>
-      <c r="R3" s="122" t="s">
+      <c r="R3" s="118" t="s">
         <v>210</v>
       </c>
-      <c r="S3" s="122" t="s">
+      <c r="S3" s="118" t="s">
         <v>330</v>
       </c>
-      <c r="T3" s="122" t="s">
+      <c r="T3" s="118" t="s">
         <v>210</v>
       </c>
-      <c r="U3" s="122" t="s">
+      <c r="U3" s="118" t="s">
         <v>331</v>
       </c>
-      <c r="V3" s="122" t="s">
+      <c r="V3" s="118" t="s">
         <v>210</v>
       </c>
-      <c r="W3" s="122" t="s">
+      <c r="W3" s="118" t="s">
         <v>332</v>
       </c>
-      <c r="X3" s="122" t="s">
+      <c r="X3" s="118" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="4" ht="13.5" spans="1:24">
-      <c r="A4" s="122">
+      <c r="A4" s="118">
         <v>1</v>
       </c>
-      <c r="B4" s="122">
+      <c r="B4" s="118">
         <v>1</v>
       </c>
-      <c r="C4" s="122">
+      <c r="C4" s="118">
         <v>1</v>
       </c>
-      <c r="D4" s="122">
+      <c r="D4" s="118">
         <v>1</v>
       </c>
-      <c r="E4" s="122">
+      <c r="E4" s="118">
         <v>1</v>
       </c>
-      <c r="F4" s="122">
+      <c r="F4" s="118">
         <v>1</v>
       </c>
-      <c r="G4" s="122">
+      <c r="G4" s="118">
         <v>1</v>
       </c>
-      <c r="H4" s="122">
+      <c r="H4" s="118">
         <v>1</v>
       </c>
-      <c r="I4" s="122">
+      <c r="I4" s="118">
         <v>1</v>
       </c>
-      <c r="J4" s="122">
+      <c r="J4" s="118">
         <v>1</v>
       </c>
-      <c r="K4" s="122">
+      <c r="K4" s="118">
         <v>1</v>
       </c>
-      <c r="L4" s="122">
+      <c r="L4" s="118">
         <v>1</v>
       </c>
-      <c r="M4" s="122">
+      <c r="M4" s="118">
         <v>1</v>
       </c>
-      <c r="N4" s="122">
+      <c r="N4" s="118">
         <v>1</v>
       </c>
-      <c r="O4" s="122">
+      <c r="O4" s="118">
         <v>1</v>
       </c>
-      <c r="P4" s="122">
+      <c r="P4" s="118">
         <v>1</v>
       </c>
-      <c r="Q4" s="122">
+      <c r="Q4" s="118">
         <v>1</v>
       </c>
-      <c r="R4" s="122">
+      <c r="R4" s="118">
         <v>1</v>
       </c>
-      <c r="S4" s="122">
+      <c r="S4" s="118">
         <v>1</v>
       </c>
-      <c r="T4" s="122">
+      <c r="T4" s="118">
         <v>1</v>
       </c>
-      <c r="U4" s="122">
+      <c r="U4" s="118">
         <v>1</v>
       </c>
-      <c r="V4" s="122">
+      <c r="V4" s="118">
         <v>1</v>
       </c>
-      <c r="W4" s="122">
+      <c r="W4" s="118">
         <v>1</v>
       </c>
-      <c r="X4" s="122">
+      <c r="X4" s="118">
         <v>1</v>
       </c>
     </row>
@@ -35423,7 +35341,7 @@
       <c r="C5" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="D5" s="135" t="s">
+      <c r="D5" s="131" t="s">
         <v>334</v>
       </c>
       <c r="E5" s="7">
@@ -35477,7 +35395,7 @@
       <c r="C6" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="D6" s="135" t="s">
+      <c r="D6" s="131" t="s">
         <v>336</v>
       </c>
       <c r="E6" s="7">
@@ -35531,7 +35449,7 @@
       <c r="C7" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="D7" s="135" t="s">
+      <c r="D7" s="131" t="s">
         <v>338</v>
       </c>
       <c r="E7" s="7">
@@ -35585,7 +35503,7 @@
       <c r="C8" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="D8" s="135" t="s">
+      <c r="D8" s="131" t="s">
         <v>340</v>
       </c>
       <c r="E8" s="7">
@@ -35639,7 +35557,7 @@
       <c r="C9" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="D9" s="135" t="s">
+      <c r="D9" s="131" t="s">
         <v>342</v>
       </c>
       <c r="E9" s="7">
@@ -35693,7 +35611,7 @@
       <c r="C10" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="D10" s="135" t="s">
+      <c r="D10" s="131" t="s">
         <v>344</v>
       </c>
       <c r="E10" s="7">
@@ -35731,7 +35649,7 @@
       <c r="C11" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="D11" s="135" t="s">
+      <c r="D11" s="131" t="s">
         <v>346</v>
       </c>
       <c r="E11" s="7">
@@ -35777,7 +35695,7 @@
       <c r="C12" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="D12" s="135" t="s">
+      <c r="D12" s="131" t="s">
         <v>346</v>
       </c>
       <c r="E12" s="7">
@@ -35823,7 +35741,7 @@
       <c r="C13" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="D13" s="135" t="s">
+      <c r="D13" s="131" t="s">
         <v>346</v>
       </c>
       <c r="E13" s="7">
@@ -35869,7 +35787,7 @@
       <c r="C14" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="D14" s="135" t="s">
+      <c r="D14" s="131" t="s">
         <v>346</v>
       </c>
       <c r="E14" s="7">
@@ -35917,7 +35835,7 @@
       <c r="C15" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="D15" s="135" t="s">
+      <c r="D15" s="131" t="s">
         <v>351</v>
       </c>
       <c r="E15" s="7">
@@ -35959,7 +35877,7 @@
       <c r="C16" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="D16" s="135" t="s">
+      <c r="D16" s="131" t="s">
         <v>353</v>
       </c>
       <c r="E16" s="7">
@@ -36005,13 +35923,13 @@
       <c r="C17" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="D17" s="135" t="s">
+      <c r="D17" s="131" t="s">
         <v>355</v>
       </c>
       <c r="E17" s="103">
         <v>10022610008</v>
       </c>
-      <c r="F17" s="104">
+      <c r="F17" s="99">
         <v>2</v>
       </c>
       <c r="G17" s="7">
@@ -36047,13 +35965,13 @@
       <c r="C18" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="D18" s="135" t="s">
+      <c r="D18" s="131" t="s">
         <v>357</v>
       </c>
       <c r="E18" s="103">
         <v>10022610008</v>
       </c>
-      <c r="F18" s="104">
+      <c r="F18" s="99">
         <v>2</v>
       </c>
       <c r="G18" s="7">
@@ -36089,13 +36007,13 @@
       <c r="C19" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="D19" s="135" t="s">
+      <c r="D19" s="131" t="s">
         <v>359</v>
       </c>
       <c r="E19" s="103">
         <v>10022610008</v>
       </c>
-      <c r="F19" s="104">
+      <c r="F19" s="99">
         <v>3</v>
       </c>
       <c r="G19" s="7">
@@ -36131,13 +36049,13 @@
       <c r="C20" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="D20" s="135" t="s">
+      <c r="D20" s="131" t="s">
         <v>361</v>
       </c>
       <c r="E20" s="103">
         <v>10022610008</v>
       </c>
-      <c r="F20" s="104">
+      <c r="F20" s="99">
         <v>3</v>
       </c>
       <c r="G20" s="7">
@@ -36177,13 +36095,13 @@
       <c r="C21" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="D21" s="135" t="s">
+      <c r="D21" s="131" t="s">
         <v>363</v>
       </c>
       <c r="E21" s="103">
         <v>10022610008</v>
       </c>
-      <c r="F21" s="104">
+      <c r="F21" s="99">
         <v>4</v>
       </c>
       <c r="G21" s="7">
@@ -36223,13 +36141,13 @@
       <c r="C22" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="D22" s="135" t="s">
+      <c r="D22" s="131" t="s">
         <v>365</v>
       </c>
       <c r="E22" s="103">
         <v>10022610008</v>
       </c>
-      <c r="F22" s="104">
+      <c r="F22" s="99">
         <v>4</v>
       </c>
       <c r="G22" s="7">
@@ -36269,13 +36187,13 @@
       <c r="C23" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="D23" s="135" t="s">
+      <c r="D23" s="131" t="s">
         <v>367</v>
       </c>
       <c r="E23" s="103">
         <v>10022610008</v>
       </c>
-      <c r="F23" s="104">
+      <c r="F23" s="99">
         <v>4</v>
       </c>
       <c r="G23" s="7">
@@ -36315,13 +36233,13 @@
       <c r="C24" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="D24" s="135" t="s">
+      <c r="D24" s="131" t="s">
         <v>369</v>
       </c>
       <c r="E24" s="103">
         <v>10022610008</v>
       </c>
-      <c r="F24" s="104">
+      <c r="F24" s="99">
         <v>5</v>
       </c>
       <c r="G24" s="7">
@@ -36361,13 +36279,13 @@
       <c r="C25" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="D25" s="135" t="s">
+      <c r="D25" s="131" t="s">
         <v>371</v>
       </c>
       <c r="E25" s="103">
         <v>10022610008</v>
       </c>
-      <c r="F25" s="104">
+      <c r="F25" s="99">
         <v>5</v>
       </c>
       <c r="G25" s="7">
@@ -36407,13 +36325,13 @@
       <c r="C26" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="D26" s="135" t="s">
+      <c r="D26" s="131" t="s">
         <v>355</v>
       </c>
       <c r="E26" s="103">
         <v>10022610008</v>
       </c>
-      <c r="F26" s="104">
+      <c r="F26" s="99">
         <v>2</v>
       </c>
       <c r="G26" s="7">
@@ -36449,13 +36367,13 @@
       <c r="C27" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="D27" s="135" t="s">
+      <c r="D27" s="131" t="s">
         <v>357</v>
       </c>
       <c r="E27" s="103">
         <v>10022610008</v>
       </c>
-      <c r="F27" s="104">
+      <c r="F27" s="99">
         <v>2</v>
       </c>
       <c r="G27" s="7">
@@ -36491,13 +36409,13 @@
       <c r="C28" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="D28" s="135" t="s">
+      <c r="D28" s="131" t="s">
         <v>359</v>
       </c>
       <c r="E28" s="103">
         <v>10022610008</v>
       </c>
-      <c r="F28" s="104">
+      <c r="F28" s="99">
         <v>3</v>
       </c>
       <c r="G28" s="7">
@@ -36533,13 +36451,13 @@
       <c r="C29" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="D29" s="135" t="s">
+      <c r="D29" s="131" t="s">
         <v>361</v>
       </c>
       <c r="E29" s="103">
         <v>10022610008</v>
       </c>
-      <c r="F29" s="104">
+      <c r="F29" s="99">
         <v>3</v>
       </c>
       <c r="G29" s="7">
@@ -36579,13 +36497,13 @@
       <c r="C30" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="D30" s="135" t="s">
+      <c r="D30" s="131" t="s">
         <v>363</v>
       </c>
       <c r="E30" s="103">
         <v>10022610008</v>
       </c>
-      <c r="F30" s="104">
+      <c r="F30" s="99">
         <v>4</v>
       </c>
       <c r="G30" s="7">
@@ -36625,13 +36543,13 @@
       <c r="C31" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="D31" s="135" t="s">
+      <c r="D31" s="131" t="s">
         <v>365</v>
       </c>
       <c r="E31" s="103">
         <v>10022610008</v>
       </c>
-      <c r="F31" s="104">
+      <c r="F31" s="99">
         <v>4</v>
       </c>
       <c r="G31" s="7">
@@ -36671,13 +36589,13 @@
       <c r="C32" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="D32" s="135" t="s">
+      <c r="D32" s="131" t="s">
         <v>367</v>
       </c>
       <c r="E32" s="103">
         <v>10022610008</v>
       </c>
-      <c r="F32" s="104">
+      <c r="F32" s="99">
         <v>4</v>
       </c>
       <c r="G32" s="7">
@@ -36717,13 +36635,13 @@
       <c r="C33" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="D33" s="135" t="s">
+      <c r="D33" s="131" t="s">
         <v>369</v>
       </c>
       <c r="E33" s="103">
         <v>10022610008</v>
       </c>
-      <c r="F33" s="104">
+      <c r="F33" s="99">
         <v>5</v>
       </c>
       <c r="G33" s="7">
@@ -36763,13 +36681,13 @@
       <c r="C34" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="D34" s="135" t="s">
+      <c r="D34" s="131" t="s">
         <v>371</v>
       </c>
       <c r="E34" s="103">
         <v>10022610008</v>
       </c>
-      <c r="F34" s="104">
+      <c r="F34" s="99">
         <v>5</v>
       </c>
       <c r="G34" s="7">
@@ -36809,7 +36727,7 @@
       <c r="C35" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="D35" s="135" t="s">
+      <c r="D35" s="131" t="s">
         <v>373</v>
       </c>
       <c r="E35" s="7">
@@ -36847,7 +36765,7 @@
       <c r="C36" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="D36" s="135" t="s">
+      <c r="D36" s="131" t="s">
         <v>375</v>
       </c>
       <c r="E36" s="7">
@@ -36893,7 +36811,7 @@
       <c r="C37" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="D37" s="135" t="s">
+      <c r="D37" s="131" t="s">
         <v>375</v>
       </c>
       <c r="E37" s="7">
@@ -36939,7 +36857,7 @@
       <c r="C38" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="D38" s="135" t="s">
+      <c r="D38" s="131" t="s">
         <v>375</v>
       </c>
       <c r="E38" s="7">
@@ -36985,7 +36903,7 @@
       <c r="C39" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="D39" s="135" t="s">
+      <c r="D39" s="131" t="s">
         <v>375</v>
       </c>
       <c r="E39" s="7">
@@ -37031,7 +36949,7 @@
       <c r="C40" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="D40" s="135" t="s">
+      <c r="D40" s="131" t="s">
         <v>375</v>
       </c>
       <c r="E40" s="7">
@@ -37077,7 +36995,7 @@
       <c r="C41" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="D41" s="135" t="s">
+      <c r="D41" s="131" t="s">
         <v>375</v>
       </c>
       <c r="E41" s="7">
@@ -37115,7 +37033,7 @@
       <c r="C42" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="D42" s="135" t="s">
+      <c r="D42" s="131" t="s">
         <v>375</v>
       </c>
       <c r="E42" s="7">
@@ -37153,7 +37071,7 @@
       <c r="C43" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="D43" s="135" t="s">
+      <c r="D43" s="131" t="s">
         <v>375</v>
       </c>
       <c r="E43" s="7">
@@ -37191,7 +37109,7 @@
       <c r="C44" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="D44" s="135" t="s">
+      <c r="D44" s="131" t="s">
         <v>384</v>
       </c>
       <c r="E44" s="7">
@@ -37229,7 +37147,7 @@
       <c r="C45" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="D45" s="135" t="s">
+      <c r="D45" s="131" t="s">
         <v>385</v>
       </c>
       <c r="E45" s="7">
@@ -37267,7 +37185,7 @@
       <c r="C46" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="D46" s="135" t="s">
+      <c r="D46" s="131" t="s">
         <v>386</v>
       </c>
       <c r="E46" s="7">
@@ -37305,7 +37223,7 @@
       <c r="C47" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="D47" s="135" t="s">
+      <c r="D47" s="131" t="s">
         <v>387</v>
       </c>
       <c r="E47" s="7">
@@ -37343,7 +37261,7 @@
       <c r="C48" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="D48" s="135" t="s">
+      <c r="D48" s="131" t="s">
         <v>389</v>
       </c>
       <c r="E48" s="7">
@@ -37381,25 +37299,25 @@
       <c r="C49" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="D49" s="135" t="s">
+      <c r="D49" s="131" t="s">
         <v>391</v>
       </c>
-      <c r="E49" s="136">
+      <c r="E49" s="132">
         <v>10002160002</v>
       </c>
-      <c r="F49" s="137">
+      <c r="F49" s="133">
         <v>20</v>
       </c>
-      <c r="G49" s="138">
+      <c r="G49" s="134">
         <v>10002160005</v>
       </c>
-      <c r="H49" s="137">
+      <c r="H49" s="133">
         <v>20</v>
       </c>
-      <c r="I49" s="138">
+      <c r="I49" s="134">
         <v>10022610015</v>
       </c>
-      <c r="J49" s="141">
+      <c r="J49" s="137">
         <v>40</v>
       </c>
       <c r="K49" s="7"/>
@@ -37427,7 +37345,7 @@
       <c r="C50" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="D50" s="135" t="s">
+      <c r="D50" s="131" t="s">
         <v>393</v>
       </c>
       <c r="E50" s="7">
@@ -37481,7 +37399,7 @@
       <c r="C51" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="D51" s="135" t="s">
+      <c r="D51" s="131" t="s">
         <v>393</v>
       </c>
       <c r="E51" s="7">
@@ -37535,7 +37453,7 @@
       <c r="C52" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="D52" s="135" t="s">
+      <c r="D52" s="131" t="s">
         <v>393</v>
       </c>
       <c r="E52" s="7">
@@ -37589,7 +37507,7 @@
       <c r="C53" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="D53" s="135" t="s">
+      <c r="D53" s="131" t="s">
         <v>393</v>
       </c>
       <c r="E53" s="7">
@@ -37643,7 +37561,7 @@
       <c r="C54" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="D54" s="135" t="s">
+      <c r="D54" s="131" t="s">
         <v>393</v>
       </c>
       <c r="E54" s="7">
@@ -37697,7 +37615,7 @@
       <c r="C55" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="D55" s="135" t="s">
+      <c r="D55" s="131" t="s">
         <v>393</v>
       </c>
       <c r="E55" s="7">
@@ -37743,7 +37661,7 @@
       <c r="C56" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="D56" s="135" t="s">
+      <c r="D56" s="131" t="s">
         <v>393</v>
       </c>
       <c r="E56" s="7">
@@ -37789,7 +37707,7 @@
       <c r="C57" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="D57" s="135" t="s">
+      <c r="D57" s="131" t="s">
         <v>393</v>
       </c>
       <c r="E57" s="7">
@@ -37835,19 +37753,19 @@
       <c r="C58" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="D58" s="135" t="s">
+      <c r="D58" s="131" t="s">
         <v>402</v>
       </c>
-      <c r="E58" s="139">
+      <c r="E58" s="135">
         <v>10002250103</v>
       </c>
-      <c r="F58" s="139">
+      <c r="F58" s="135">
         <v>30</v>
       </c>
-      <c r="G58" s="140">
+      <c r="G58" s="136">
         <v>10002160009</v>
       </c>
-      <c r="H58" s="139">
+      <c r="H58" s="135">
         <v>10</v>
       </c>
       <c r="I58" s="7"/>
@@ -37877,19 +37795,19 @@
       <c r="C59" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="D59" s="135" t="s">
+      <c r="D59" s="131" t="s">
         <v>402</v>
       </c>
-      <c r="E59" s="139">
+      <c r="E59" s="135">
         <v>10002250103</v>
       </c>
-      <c r="F59" s="139">
+      <c r="F59" s="135">
         <v>25</v>
       </c>
-      <c r="G59" s="140">
+      <c r="G59" s="136">
         <v>10002160009</v>
       </c>
-      <c r="H59" s="139">
+      <c r="H59" s="135">
         <v>9</v>
       </c>
       <c r="I59" s="7"/>
@@ -37919,19 +37837,19 @@
       <c r="C60" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="D60" s="135" t="s">
+      <c r="D60" s="131" t="s">
         <v>402</v>
       </c>
-      <c r="E60" s="139">
+      <c r="E60" s="135">
         <v>10002250103</v>
       </c>
-      <c r="F60" s="139">
+      <c r="F60" s="135">
         <v>20</v>
       </c>
-      <c r="G60" s="140">
+      <c r="G60" s="136">
         <v>10002160009</v>
       </c>
-      <c r="H60" s="139">
+      <c r="H60" s="135">
         <v>8</v>
       </c>
       <c r="I60" s="7"/>
@@ -37961,19 +37879,19 @@
       <c r="C61" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="D61" s="135" t="s">
+      <c r="D61" s="131" t="s">
         <v>402</v>
       </c>
-      <c r="E61" s="139">
+      <c r="E61" s="135">
         <v>10002250103</v>
       </c>
-      <c r="F61" s="139">
+      <c r="F61" s="135">
         <v>15</v>
       </c>
-      <c r="G61" s="140">
+      <c r="G61" s="136">
         <v>10002160009</v>
       </c>
-      <c r="H61" s="139">
+      <c r="H61" s="135">
         <v>7</v>
       </c>
       <c r="I61" s="7"/>
@@ -38003,19 +37921,19 @@
       <c r="C62" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="D62" s="135" t="s">
+      <c r="D62" s="131" t="s">
         <v>402</v>
       </c>
-      <c r="E62" s="139">
+      <c r="E62" s="135">
         <v>10002250103</v>
       </c>
-      <c r="F62" s="139">
+      <c r="F62" s="135">
         <v>15</v>
       </c>
-      <c r="G62" s="140">
+      <c r="G62" s="136">
         <v>10002160009</v>
       </c>
-      <c r="H62" s="139">
+      <c r="H62" s="135">
         <v>6</v>
       </c>
       <c r="I62" s="7"/>
@@ -38045,19 +37963,19 @@
       <c r="C63" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="D63" s="135" t="s">
+      <c r="D63" s="131" t="s">
         <v>402</v>
       </c>
-      <c r="E63" s="139">
+      <c r="E63" s="135">
         <v>10002250103</v>
       </c>
-      <c r="F63" s="139">
+      <c r="F63" s="135">
         <v>10</v>
       </c>
-      <c r="G63" s="140">
+      <c r="G63" s="136">
         <v>10002160009</v>
       </c>
-      <c r="H63" s="139">
+      <c r="H63" s="135">
         <v>5</v>
       </c>
       <c r="I63" s="7"/>
@@ -38087,19 +38005,19 @@
       <c r="C64" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="D64" s="135" t="s">
+      <c r="D64" s="131" t="s">
         <v>402</v>
       </c>
-      <c r="E64" s="139">
+      <c r="E64" s="135">
         <v>10002250103</v>
       </c>
-      <c r="F64" s="139">
+      <c r="F64" s="135">
         <v>10</v>
       </c>
-      <c r="G64" s="140">
+      <c r="G64" s="136">
         <v>10002160009</v>
       </c>
-      <c r="H64" s="139">
+      <c r="H64" s="135">
         <v>4</v>
       </c>
       <c r="I64" s="7"/>
@@ -38129,12 +38047,12 @@
       <c r="C65" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="D65" s="135" t="s">
+      <c r="D65" s="131" t="s">
         <v>402</v>
       </c>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="140">
+      <c r="G65" s="136">
         <v>10002160009</v>
       </c>
       <c r="H65" s="99">
@@ -38167,7 +38085,7 @@
       <c r="C66" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="D66" s="135" t="s">
+      <c r="D66" s="131" t="s">
         <v>411</v>
       </c>
       <c r="E66" s="5">
@@ -38213,7 +38131,7 @@
       <c r="C67" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="D67" s="135" t="s">
+      <c r="D67" s="131" t="s">
         <v>412</v>
       </c>
       <c r="E67" s="5">
@@ -38259,7 +38177,7 @@
       <c r="C68" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="D68" s="135" t="s">
+      <c r="D68" s="131" t="s">
         <v>413</v>
       </c>
       <c r="E68" s="5">
@@ -38305,7 +38223,7 @@
       <c r="C69" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="D69" s="135" t="s">
+      <c r="D69" s="131" t="s">
         <v>414</v>
       </c>
       <c r="E69" s="5">
@@ -38351,7 +38269,7 @@
       <c r="C70" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="D70" s="135" t="s">
+      <c r="D70" s="131" t="s">
         <v>415</v>
       </c>
       <c r="E70" s="5">
@@ -38397,7 +38315,7 @@
       <c r="C71" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="D71" s="135" t="s">
+      <c r="D71" s="131" t="s">
         <v>416</v>
       </c>
       <c r="E71" s="5">
@@ -38443,7 +38361,7 @@
       <c r="C72" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="D72" s="135" t="s">
+      <c r="D72" s="131" t="s">
         <v>417</v>
       </c>
       <c r="E72" s="5">
@@ -38489,7 +38407,7 @@
       <c r="C73" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="D73" s="135" t="s">
+      <c r="D73" s="131" t="s">
         <v>418</v>
       </c>
       <c r="E73" s="5">
@@ -38535,7 +38453,7 @@
       <c r="C74" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="D74" s="135" t="s">
+      <c r="D74" s="131" t="s">
         <v>419</v>
       </c>
       <c r="E74" s="5">
@@ -38581,7 +38499,7 @@
       <c r="C75" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="D75" s="135" t="s">
+      <c r="D75" s="131" t="s">
         <v>420</v>
       </c>
       <c r="E75" s="5">
@@ -38623,7 +38541,7 @@
       <c r="C76" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="D76" s="135" t="s">
+      <c r="D76" s="131" t="s">
         <v>421</v>
       </c>
       <c r="E76" s="5">
@@ -38665,7 +38583,7 @@
       <c r="C77" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="D77" s="135" t="s">
+      <c r="D77" s="131" t="s">
         <v>422</v>
       </c>
       <c r="E77" s="5">
@@ -38707,7 +38625,7 @@
       <c r="C78" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="D78" s="135" t="s">
+      <c r="D78" s="131" t="s">
         <v>423</v>
       </c>
       <c r="E78" s="5">
@@ -38749,7 +38667,7 @@
       <c r="C79" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="D79" s="135" t="s">
+      <c r="D79" s="131" t="s">
         <v>425</v>
       </c>
       <c r="E79" s="7">
@@ -38761,7 +38679,7 @@
       <c r="G79" s="7">
         <v>10002180001</v>
       </c>
-      <c r="H79" s="142">
+      <c r="H79" s="138">
         <v>50</v>
       </c>
       <c r="I79" s="7">
@@ -38795,7 +38713,7 @@
       <c r="C80" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="D80" s="135" t="s">
+      <c r="D80" s="131" t="s">
         <v>426</v>
       </c>
       <c r="E80" s="7">
@@ -38807,7 +38725,7 @@
       <c r="G80" s="7">
         <v>10002180001</v>
       </c>
-      <c r="H80" s="142">
+      <c r="H80" s="138">
         <v>50</v>
       </c>
       <c r="I80" s="7">
@@ -38841,7 +38759,7 @@
       <c r="C81" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="D81" s="135" t="s">
+      <c r="D81" s="131" t="s">
         <v>427</v>
       </c>
       <c r="E81" s="7">
@@ -38853,7 +38771,7 @@
       <c r="G81" s="7">
         <v>10002180001</v>
       </c>
-      <c r="H81" s="142">
+      <c r="H81" s="138">
         <v>50</v>
       </c>
       <c r="I81" s="7">
@@ -38887,7 +38805,7 @@
       <c r="C82" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="D82" s="135" t="s">
+      <c r="D82" s="131" t="s">
         <v>428</v>
       </c>
       <c r="E82" s="7">
@@ -38899,7 +38817,7 @@
       <c r="G82" s="7">
         <v>10002180001</v>
       </c>
-      <c r="H82" s="142">
+      <c r="H82" s="138">
         <v>50</v>
       </c>
       <c r="I82" s="7">
@@ -38933,7 +38851,7 @@
       <c r="C83" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="D83" s="135" t="s">
+      <c r="D83" s="131" t="s">
         <v>429</v>
       </c>
       <c r="E83" s="7">
@@ -38945,7 +38863,7 @@
       <c r="G83" s="7">
         <v>10002180001</v>
       </c>
-      <c r="H83" s="142">
+      <c r="H83" s="138">
         <v>50</v>
       </c>
       <c r="I83" s="7">
@@ -38979,7 +38897,7 @@
       <c r="C84" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="D84" s="135" t="s">
+      <c r="D84" s="131" t="s">
         <v>430</v>
       </c>
       <c r="E84" s="7">
@@ -38991,7 +38909,7 @@
       <c r="G84" s="7">
         <v>10002180001</v>
       </c>
-      <c r="H84" s="142">
+      <c r="H84" s="138">
         <v>50</v>
       </c>
       <c r="I84" s="7">
@@ -39025,7 +38943,7 @@
       <c r="C85" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="D85" s="135" t="s">
+      <c r="D85" s="131" t="s">
         <v>431</v>
       </c>
       <c r="E85" s="7">
@@ -39037,7 +38955,7 @@
       <c r="G85" s="7">
         <v>10002180001</v>
       </c>
-      <c r="H85" s="142">
+      <c r="H85" s="138">
         <v>50</v>
       </c>
       <c r="I85" s="7">
@@ -39071,7 +38989,7 @@
       <c r="C86" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="D86" s="135" t="s">
+      <c r="D86" s="131" t="s">
         <v>432</v>
       </c>
       <c r="E86" s="7">
@@ -39083,7 +39001,7 @@
       <c r="G86" s="7">
         <v>10002180001</v>
       </c>
-      <c r="H86" s="142">
+      <c r="H86" s="138">
         <v>50</v>
       </c>
       <c r="I86" s="7">
@@ -39117,7 +39035,7 @@
       <c r="C87" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="D87" s="135" t="s">
+      <c r="D87" s="131" t="s">
         <v>433</v>
       </c>
       <c r="E87" s="7">
@@ -39129,7 +39047,7 @@
       <c r="G87" s="7">
         <v>10002180001</v>
       </c>
-      <c r="H87" s="142">
+      <c r="H87" s="138">
         <v>50</v>
       </c>
       <c r="I87" s="7">
@@ -39163,7 +39081,7 @@
       <c r="C88" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="D88" s="135" t="s">
+      <c r="D88" s="131" t="s">
         <v>434</v>
       </c>
       <c r="E88" s="7">
@@ -39175,7 +39093,7 @@
       <c r="G88" s="7">
         <v>10002180001</v>
       </c>
-      <c r="H88" s="142">
+      <c r="H88" s="138">
         <v>50</v>
       </c>
       <c r="I88" s="7">
@@ -39209,7 +39127,7 @@
       <c r="C89" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="D89" s="135" t="s">
+      <c r="D89" s="131" t="s">
         <v>435</v>
       </c>
       <c r="E89" s="7">
@@ -39221,7 +39139,7 @@
       <c r="G89" s="7">
         <v>10002180001</v>
       </c>
-      <c r="H89" s="142">
+      <c r="H89" s="138">
         <v>100</v>
       </c>
       <c r="I89" s="7">
@@ -39255,7 +39173,7 @@
       <c r="C90" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="D90" s="135" t="s">
+      <c r="D90" s="131" t="s">
         <v>436</v>
       </c>
       <c r="E90" s="7">
@@ -39267,7 +39185,7 @@
       <c r="G90" s="7">
         <v>10002180001</v>
       </c>
-      <c r="H90" s="142">
+      <c r="H90" s="138">
         <v>100</v>
       </c>
       <c r="I90" s="7">
@@ -39301,7 +39219,7 @@
       <c r="C91" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="D91" s="135" t="s">
+      <c r="D91" s="131" t="s">
         <v>437</v>
       </c>
       <c r="E91" s="7">
@@ -39313,7 +39231,7 @@
       <c r="G91" s="7">
         <v>10002180001</v>
       </c>
-      <c r="H91" s="142">
+      <c r="H91" s="138">
         <v>100</v>
       </c>
       <c r="I91" s="7">
@@ -39347,7 +39265,7 @@
       <c r="C92" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="D92" s="135" t="s">
+      <c r="D92" s="131" t="s">
         <v>438</v>
       </c>
       <c r="E92" s="7">
@@ -39359,7 +39277,7 @@
       <c r="G92" s="7">
         <v>10002180001</v>
       </c>
-      <c r="H92" s="142">
+      <c r="H92" s="138">
         <v>100</v>
       </c>
       <c r="I92" s="7">
@@ -39393,7 +39311,7 @@
       <c r="C93" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="D93" s="135" t="s">
+      <c r="D93" s="131" t="s">
         <v>439</v>
       </c>
       <c r="E93" s="7">
@@ -39405,7 +39323,7 @@
       <c r="G93" s="7">
         <v>10002180001</v>
       </c>
-      <c r="H93" s="142">
+      <c r="H93" s="138">
         <v>100</v>
       </c>
       <c r="I93" s="7">
@@ -39439,7 +39357,7 @@
       <c r="C94" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="D94" s="135" t="s">
+      <c r="D94" s="131" t="s">
         <v>440</v>
       </c>
       <c r="E94" s="7">
@@ -39451,7 +39369,7 @@
       <c r="G94" s="7">
         <v>10002180001</v>
       </c>
-      <c r="H94" s="142">
+      <c r="H94" s="138">
         <v>100</v>
       </c>
       <c r="I94" s="7">
@@ -39485,7 +39403,7 @@
       <c r="C95" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="D95" s="135" t="s">
+      <c r="D95" s="131" t="s">
         <v>441</v>
       </c>
       <c r="E95" s="7">
@@ -39497,7 +39415,7 @@
       <c r="G95" s="7">
         <v>10002180001</v>
       </c>
-      <c r="H95" s="142">
+      <c r="H95" s="138">
         <v>100</v>
       </c>
       <c r="I95" s="7">
@@ -39531,7 +39449,7 @@
       <c r="C96" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="D96" s="135" t="s">
+      <c r="D96" s="131" t="s">
         <v>442</v>
       </c>
       <c r="E96" s="7">
@@ -39543,7 +39461,7 @@
       <c r="G96" s="7">
         <v>10002180001</v>
       </c>
-      <c r="H96" s="142">
+      <c r="H96" s="138">
         <v>100</v>
       </c>
       <c r="I96" s="7">
@@ -39577,7 +39495,7 @@
       <c r="C97" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="D97" s="135" t="s">
+      <c r="D97" s="131" t="s">
         <v>443</v>
       </c>
       <c r="E97" s="7">
@@ -39589,7 +39507,7 @@
       <c r="G97" s="7">
         <v>10002180001</v>
       </c>
-      <c r="H97" s="142">
+      <c r="H97" s="138">
         <v>100</v>
       </c>
       <c r="I97" s="7">
@@ -39623,7 +39541,7 @@
       <c r="C98" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="D98" s="135" t="s">
+      <c r="D98" s="131" t="s">
         <v>444</v>
       </c>
       <c r="E98" s="7">
@@ -39635,7 +39553,7 @@
       <c r="G98" s="7">
         <v>10002180001</v>
       </c>
-      <c r="H98" s="142">
+      <c r="H98" s="138">
         <v>100</v>
       </c>
       <c r="I98" s="7">
@@ -39669,7 +39587,7 @@
       <c r="C99" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="D99" s="135" t="s">
+      <c r="D99" s="131" t="s">
         <v>445</v>
       </c>
       <c r="E99" s="7">
@@ -39681,7 +39599,7 @@
       <c r="G99" s="7">
         <v>10002180001</v>
       </c>
-      <c r="H99" s="142">
+      <c r="H99" s="138">
         <v>150</v>
       </c>
       <c r="I99" s="7">
@@ -39715,7 +39633,7 @@
       <c r="C100" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="D100" s="135" t="s">
+      <c r="D100" s="131" t="s">
         <v>446</v>
       </c>
       <c r="E100" s="7">
@@ -39727,7 +39645,7 @@
       <c r="G100" s="7">
         <v>10002180001</v>
       </c>
-      <c r="H100" s="142">
+      <c r="H100" s="138">
         <v>150</v>
       </c>
       <c r="I100" s="7">
@@ -39761,7 +39679,7 @@
       <c r="C101" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="D101" s="135" t="s">
+      <c r="D101" s="131" t="s">
         <v>447</v>
       </c>
       <c r="E101" s="7">
@@ -39773,7 +39691,7 @@
       <c r="G101" s="7">
         <v>10002180001</v>
       </c>
-      <c r="H101" s="142">
+      <c r="H101" s="138">
         <v>150</v>
       </c>
       <c r="I101" s="7">
@@ -39807,7 +39725,7 @@
       <c r="C102" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="D102" s="135" t="s">
+      <c r="D102" s="131" t="s">
         <v>448</v>
       </c>
       <c r="E102" s="7">
@@ -39819,7 +39737,7 @@
       <c r="G102" s="7">
         <v>10002180001</v>
       </c>
-      <c r="H102" s="142">
+      <c r="H102" s="138">
         <v>150</v>
       </c>
       <c r="I102" s="7">
@@ -39853,7 +39771,7 @@
       <c r="C103" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="D103" s="135" t="s">
+      <c r="D103" s="131" t="s">
         <v>449</v>
       </c>
       <c r="E103" s="7">
@@ -39865,7 +39783,7 @@
       <c r="G103" s="7">
         <v>10002180001</v>
       </c>
-      <c r="H103" s="142">
+      <c r="H103" s="138">
         <v>150</v>
       </c>
       <c r="I103" s="7">
@@ -39899,7 +39817,7 @@
       <c r="C104" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="D104" s="135" t="s">
+      <c r="D104" s="131" t="s">
         <v>450</v>
       </c>
       <c r="E104" s="7">
@@ -39911,7 +39829,7 @@
       <c r="G104" s="7">
         <v>10002180001</v>
       </c>
-      <c r="H104" s="142">
+      <c r="H104" s="138">
         <v>150</v>
       </c>
       <c r="I104" s="7">
@@ -39945,7 +39863,7 @@
       <c r="C105" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="D105" s="135" t="s">
+      <c r="D105" s="131" t="s">
         <v>451</v>
       </c>
       <c r="E105" s="7">
@@ -39957,7 +39875,7 @@
       <c r="G105" s="7">
         <v>10002180001</v>
       </c>
-      <c r="H105" s="142">
+      <c r="H105" s="138">
         <v>150</v>
       </c>
       <c r="I105" s="7">
@@ -39991,7 +39909,7 @@
       <c r="C106" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="D106" s="135" t="s">
+      <c r="D106" s="131" t="s">
         <v>452</v>
       </c>
       <c r="E106" s="7">
@@ -40003,7 +39921,7 @@
       <c r="G106" s="7">
         <v>10002180001</v>
       </c>
-      <c r="H106" s="142">
+      <c r="H106" s="138">
         <v>150</v>
       </c>
       <c r="I106" s="7">
@@ -40037,7 +39955,7 @@
       <c r="C107" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="D107" s="135" t="s">
+      <c r="D107" s="131" t="s">
         <v>453</v>
       </c>
       <c r="E107" s="7">
@@ -40049,7 +39967,7 @@
       <c r="G107" s="7">
         <v>10002180001</v>
       </c>
-      <c r="H107" s="142">
+      <c r="H107" s="138">
         <v>150</v>
       </c>
       <c r="I107" s="7">
@@ -40083,7 +40001,7 @@
       <c r="C108" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="D108" s="135" t="s">
+      <c r="D108" s="131" t="s">
         <v>454</v>
       </c>
       <c r="E108" s="7">
@@ -40095,7 +40013,7 @@
       <c r="G108" s="7">
         <v>10002180001</v>
       </c>
-      <c r="H108" s="142">
+      <c r="H108" s="138">
         <v>150</v>
       </c>
       <c r="I108" s="7">
@@ -40129,7 +40047,7 @@
       <c r="C109" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="D109" s="135" t="s">
+      <c r="D109" s="131" t="s">
         <v>455</v>
       </c>
       <c r="E109" s="7">
@@ -40141,7 +40059,7 @@
       <c r="G109" s="7">
         <v>10002180001</v>
       </c>
-      <c r="H109" s="142">
+      <c r="H109" s="138">
         <v>250</v>
       </c>
       <c r="I109" s="7">
@@ -40175,7 +40093,7 @@
       <c r="C110" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="D110" s="135" t="s">
+      <c r="D110" s="131" t="s">
         <v>456</v>
       </c>
       <c r="E110" s="7">
@@ -40187,7 +40105,7 @@
       <c r="G110" s="7">
         <v>10002180001</v>
       </c>
-      <c r="H110" s="142">
+      <c r="H110" s="138">
         <v>250</v>
       </c>
       <c r="I110" s="7">
@@ -40244,123 +40162,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="118" t="s">
         <v>457</v>
       </c>
-      <c r="C1" s="122" t="s">
+      <c r="C1" s="118" t="s">
         <v>458</v>
       </c>
-      <c r="D1" s="123" t="s">
+      <c r="D1" s="119" t="s">
         <v>459</v>
       </c>
-      <c r="E1" s="123" t="s">
+      <c r="E1" s="119" t="s">
         <v>460</v>
       </c>
-      <c r="F1" s="124" t="s">
+      <c r="F1" s="120" t="s">
         <v>459</v>
       </c>
-      <c r="G1" s="124" t="s">
+      <c r="G1" s="120" t="s">
         <v>460</v>
       </c>
-      <c r="H1" s="122" t="s">
+      <c r="H1" s="118" t="s">
         <v>459</v>
       </c>
-      <c r="I1" s="122" t="s">
+      <c r="I1" s="118" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="121" t="s">
         <v>461</v>
       </c>
-      <c r="C2" s="125" t="s">
+      <c r="C2" s="121" t="s">
         <v>462</v>
       </c>
-      <c r="D2" s="126" t="s">
+      <c r="D2" s="122" t="s">
         <v>463</v>
       </c>
-      <c r="E2" s="126" t="s">
+      <c r="E2" s="122" t="s">
         <v>464</v>
       </c>
-      <c r="F2" s="127" t="s">
+      <c r="F2" s="123" t="s">
         <v>465</v>
       </c>
-      <c r="G2" s="127" t="s">
+      <c r="G2" s="123" t="s">
         <v>466</v>
       </c>
-      <c r="H2" s="125" t="s">
+      <c r="H2" s="121" t="s">
         <v>467</v>
       </c>
-      <c r="I2" s="125" t="s">
+      <c r="I2" s="121" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="118" t="s">
         <v>227</v>
       </c>
-      <c r="B3" s="128" t="s">
+      <c r="B3" s="124" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="128" t="s">
+      <c r="C3" s="124" t="s">
         <v>210</v>
       </c>
-      <c r="D3" s="129" t="s">
+      <c r="D3" s="125" t="s">
         <v>211</v>
       </c>
-      <c r="E3" s="129" t="s">
+      <c r="E3" s="125" t="s">
         <v>211</v>
       </c>
-      <c r="F3" s="130" t="s">
+      <c r="F3" s="126" t="s">
         <v>211</v>
       </c>
-      <c r="G3" s="130" t="s">
+      <c r="G3" s="126" t="s">
         <v>211</v>
       </c>
-      <c r="H3" s="128" t="s">
+      <c r="H3" s="124" t="s">
         <v>211</v>
       </c>
-      <c r="I3" s="128" t="s">
+      <c r="I3" s="124" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="122">
+      <c r="A4" s="118">
         <v>3</v>
       </c>
-      <c r="B4" s="122">
+      <c r="B4" s="118">
         <v>0</v>
       </c>
-      <c r="C4" s="122">
+      <c r="C4" s="118">
         <v>1</v>
       </c>
-      <c r="D4" s="123">
+      <c r="D4" s="119">
         <v>1</v>
       </c>
-      <c r="E4" s="123">
+      <c r="E4" s="119">
         <v>1</v>
       </c>
-      <c r="F4" s="124">
+      <c r="F4" s="120">
         <v>1</v>
       </c>
-      <c r="G4" s="124">
+      <c r="G4" s="120">
         <v>1</v>
       </c>
-      <c r="H4" s="122">
+      <c r="H4" s="118">
         <v>1</v>
       </c>
-      <c r="I4" s="122">
+      <c r="I4" s="118">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="131">
+      <c r="A5" s="127">
         <v>58000000001</v>
       </c>
       <c r="B5" s="30" t="s">
@@ -40369,7 +40287,7 @@
       <c r="C5" s="30">
         <v>1</v>
       </c>
-      <c r="D5" s="132" t="s">
+      <c r="D5" s="128" t="s">
         <v>233</v>
       </c>
       <c r="E5" s="30"/>
@@ -40379,7 +40297,7 @@
       <c r="I5" s="30"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="131">
+      <c r="A6" s="127">
         <v>58000000002</v>
       </c>
       <c r="B6" s="30" t="s">
@@ -40388,7 +40306,7 @@
       <c r="C6" s="30">
         <v>1</v>
       </c>
-      <c r="D6" s="132" t="s">
+      <c r="D6" s="128" t="s">
         <v>233</v>
       </c>
       <c r="E6" s="30"/>
@@ -40398,7 +40316,7 @@
       <c r="I6" s="30"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="131">
+      <c r="A7" s="127">
         <v>58000000003</v>
       </c>
       <c r="B7" s="30" t="s">
@@ -40407,7 +40325,7 @@
       <c r="C7" s="30">
         <v>1</v>
       </c>
-      <c r="D7" s="132" t="s">
+      <c r="D7" s="128" t="s">
         <v>241</v>
       </c>
       <c r="E7" s="30"/>
@@ -40417,7 +40335,7 @@
       <c r="I7" s="30"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="131">
+      <c r="A8" s="127">
         <v>58000000004</v>
       </c>
       <c r="B8" s="30" t="s">
@@ -40426,7 +40344,7 @@
       <c r="C8" s="30">
         <v>1</v>
       </c>
-      <c r="D8" s="132" t="s">
+      <c r="D8" s="128" t="s">
         <v>233</v>
       </c>
       <c r="E8" s="30"/>
@@ -40436,7 +40354,7 @@
       <c r="I8" s="30"/>
     </row>
     <row r="9" ht="15" customHeight="1" spans="1:9">
-      <c r="A9" s="131">
+      <c r="A9" s="127">
         <v>58000000005</v>
       </c>
       <c r="B9" s="30" t="s">
@@ -40445,7 +40363,7 @@
       <c r="C9" s="30">
         <v>1</v>
       </c>
-      <c r="D9" s="132" t="s">
+      <c r="D9" s="128" t="s">
         <v>252</v>
       </c>
       <c r="E9" s="30"/>
@@ -40455,7 +40373,7 @@
       <c r="I9" s="30"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="131">
+      <c r="A10" s="127">
         <v>58000000006</v>
       </c>
       <c r="B10" s="30" t="s">
@@ -40464,10 +40382,10 @@
       <c r="C10" s="30">
         <v>1</v>
       </c>
-      <c r="D10" s="132" t="s">
+      <c r="D10" s="128" t="s">
         <v>469</v>
       </c>
-      <c r="E10" s="133" t="s">
+      <c r="E10" s="129" t="s">
         <v>470</v>
       </c>
       <c r="F10" s="30"/>
@@ -40476,7 +40394,7 @@
       <c r="I10" s="30"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="131">
+      <c r="A11" s="127">
         <v>58000000007</v>
       </c>
       <c r="B11" s="30" t="s">
@@ -40485,7 +40403,7 @@
       <c r="C11" s="30">
         <v>1</v>
       </c>
-      <c r="D11" s="132" t="s">
+      <c r="D11" s="128" t="s">
         <v>233</v>
       </c>
       <c r="E11" s="30"/>
@@ -40495,7 +40413,7 @@
       <c r="I11" s="30"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="131">
+      <c r="A12" s="127">
         <v>58000000008</v>
       </c>
       <c r="B12" s="93" t="s">
@@ -40504,23 +40422,23 @@
       <c r="C12" s="30">
         <v>1</v>
       </c>
-      <c r="D12" s="134" t="s">
+      <c r="D12" s="130" t="s">
         <v>471</v>
       </c>
-      <c r="E12" s="134" t="s">
+      <c r="E12" s="130" t="s">
         <v>472</v>
       </c>
-      <c r="F12" s="134" t="s">
+      <c r="F12" s="130" t="s">
         <v>473</v>
       </c>
-      <c r="G12" s="133" t="s">
+      <c r="G12" s="129" t="s">
         <v>474</v>
       </c>
-      <c r="H12" s="132"/>
+      <c r="H12" s="128"/>
       <c r="I12" s="30"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="131">
+      <c r="A13" s="127">
         <v>58000000009</v>
       </c>
       <c r="B13" s="30" t="s">
@@ -40529,7 +40447,7 @@
       <c r="C13" s="30">
         <v>1</v>
       </c>
-      <c r="D13" s="132" t="s">
+      <c r="D13" s="128" t="s">
         <v>475</v>
       </c>
       <c r="E13" s="30"/>
@@ -40539,7 +40457,7 @@
       <c r="I13" s="30"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="131">
+      <c r="A14" s="127">
         <v>58000000010</v>
       </c>
       <c r="B14" s="30" t="s">
@@ -40548,23 +40466,23 @@
       <c r="C14" s="30">
         <v>1</v>
       </c>
-      <c r="D14" s="134" t="s">
+      <c r="D14" s="130" t="s">
         <v>471</v>
       </c>
-      <c r="E14" s="134" t="s">
+      <c r="E14" s="130" t="s">
         <v>476</v>
       </c>
-      <c r="F14" s="134" t="s">
+      <c r="F14" s="130" t="s">
         <v>477</v>
       </c>
-      <c r="G14" s="134" t="s">
+      <c r="G14" s="130" t="s">
         <v>478</v>
       </c>
-      <c r="H14" s="132"/>
+      <c r="H14" s="128"/>
       <c r="I14" s="30"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="131">
+      <c r="A15" s="127">
         <v>58000000011</v>
       </c>
       <c r="B15" s="30" t="s">
@@ -40573,11 +40491,11 @@
       <c r="C15" s="30">
         <v>1</v>
       </c>
-      <c r="D15" s="132" t="s">
+      <c r="D15" s="128" t="s">
         <v>286</v>
       </c>
       <c r="E15" s="30"/>
-      <c r="F15" s="132" t="s">
+      <c r="F15" s="128" t="s">
         <v>479</v>
       </c>
       <c r="G15" s="30"/>
@@ -40585,7 +40503,7 @@
       <c r="I15" s="30"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="131">
+      <c r="A16" s="127">
         <v>58000000012</v>
       </c>
       <c r="B16" s="93" t="s">
@@ -40594,7 +40512,7 @@
       <c r="C16" s="93">
         <v>2</v>
       </c>
-      <c r="D16" s="132"/>
+      <c r="D16" s="128"/>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
       <c r="G16" s="30"/>
@@ -40728,7 +40646,7 @@
       <c r="C5" t="s">
         <v>487</v>
       </c>
-      <c r="E5" s="201" t="s">
+      <c r="E5" s="193" t="s">
         <v>488</v>
       </c>
     </row>
@@ -40745,7 +40663,7 @@
       <c r="D6">
         <v>6</v>
       </c>
-      <c r="E6" s="121"/>
+      <c r="E6" s="117"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
@@ -40760,40 +40678,40 @@
       <c r="D7">
         <v>500</v>
       </c>
-      <c r="E7" s="121"/>
+      <c r="E7" s="117"/>
     </row>
     <row r="8" spans="5:5">
-      <c r="E8" s="121"/>
+      <c r="E8" s="117"/>
     </row>
     <row r="9" spans="5:5">
-      <c r="E9" s="121"/>
+      <c r="E9" s="117"/>
     </row>
     <row r="10" spans="5:5">
-      <c r="E10" s="121"/>
+      <c r="E10" s="117"/>
     </row>
     <row r="11" spans="5:5">
-      <c r="E11" s="121"/>
+      <c r="E11" s="117"/>
     </row>
     <row r="12" spans="5:5">
-      <c r="E12" s="121"/>
+      <c r="E12" s="117"/>
     </row>
     <row r="13" spans="5:5">
-      <c r="E13" s="121"/>
+      <c r="E13" s="117"/>
     </row>
     <row r="14" spans="5:5">
-      <c r="E14" s="121"/>
+      <c r="E14" s="117"/>
     </row>
     <row r="15" spans="5:5">
-      <c r="E15" s="121"/>
+      <c r="E15" s="117"/>
     </row>
     <row r="16" spans="5:5">
-      <c r="E16" s="121"/>
+      <c r="E16" s="117"/>
     </row>
     <row r="17" spans="5:5">
-      <c r="E17" s="121"/>
+      <c r="E17" s="117"/>
     </row>
     <row r="18" spans="5:5">
-      <c r="E18" s="121"/>
+      <c r="E18" s="117"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40823,106 +40741,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="105" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="105" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="105" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="108" t="s">
+      <c r="F1" s="105" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="105" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="108" t="s">
+      <c r="H1" s="105" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="105" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="105" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="108" t="s">
+      <c r="D2" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="108" t="s">
+      <c r="E2" s="105" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="108" t="s">
+      <c r="F2" s="105" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="108" t="s">
+      <c r="G2" s="105" t="s">
         <v>110</v>
       </c>
-      <c r="H2" s="108" t="s">
+      <c r="H2" s="105" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="105" t="s">
         <v>227</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="105" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="105" t="s">
         <v>211</v>
       </c>
-      <c r="D3" s="108" t="s">
+      <c r="D3" s="105" t="s">
         <v>211</v>
       </c>
-      <c r="E3" s="108" t="s">
+      <c r="E3" s="105" t="s">
         <v>211</v>
       </c>
-      <c r="F3" s="108" t="s">
+      <c r="F3" s="105" t="s">
         <v>211</v>
       </c>
-      <c r="G3" s="108" t="s">
+      <c r="G3" s="105" t="s">
         <v>211</v>
       </c>
-      <c r="H3" s="108" t="s">
+      <c r="H3" s="105" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="108">
+      <c r="A4" s="105">
         <v>1</v>
       </c>
-      <c r="B4" s="108">
+      <c r="B4" s="105">
         <v>1</v>
       </c>
-      <c r="C4" s="108">
+      <c r="C4" s="105">
         <v>1</v>
       </c>
-      <c r="D4" s="108">
+      <c r="D4" s="105">
         <v>1</v>
       </c>
-      <c r="E4" s="108">
+      <c r="E4" s="105">
         <v>1</v>
       </c>
-      <c r="F4" s="108">
+      <c r="F4" s="105">
         <v>1</v>
       </c>
-      <c r="G4" s="108">
+      <c r="G4" s="105">
         <v>1</v>
       </c>
-      <c r="H4" s="108">
+      <c r="H4" s="105">
         <v>1</v>
       </c>
     </row>
@@ -40937,8 +40855,8 @@
         <v>492</v>
       </c>
       <c r="D5" s="12"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="111" t="s">
+      <c r="E5" s="107"/>
+      <c r="F5" s="108" t="s">
         <v>493</v>
       </c>
       <c r="G5" s="12" t="s">
@@ -40957,8 +40875,8 @@
         <v>492</v>
       </c>
       <c r="D6" s="12"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="111" t="s">
+      <c r="E6" s="107"/>
+      <c r="F6" s="108" t="s">
         <v>493</v>
       </c>
       <c r="G6" s="12" t="s">
@@ -40977,8 +40895,8 @@
         <v>492</v>
       </c>
       <c r="D7" s="12"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="111" t="s">
+      <c r="E7" s="107"/>
+      <c r="F7" s="108" t="s">
         <v>493</v>
       </c>
       <c r="G7" s="12" t="s">
@@ -40997,8 +40915,8 @@
         <v>492</v>
       </c>
       <c r="D8" s="12"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="111" t="s">
+      <c r="E8" s="107"/>
+      <c r="F8" s="108" t="s">
         <v>493</v>
       </c>
       <c r="G8" s="12" t="s">
@@ -41017,8 +40935,8 @@
         <v>492</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="111" t="s">
+      <c r="E9" s="107"/>
+      <c r="F9" s="108" t="s">
         <v>493</v>
       </c>
       <c r="G9" s="12" t="s">
@@ -41037,8 +40955,8 @@
         <v>492</v>
       </c>
       <c r="D10" s="12"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="111" t="s">
+      <c r="E10" s="107"/>
+      <c r="F10" s="108" t="s">
         <v>500</v>
       </c>
       <c r="G10" s="12"/>
@@ -41057,8 +40975,8 @@
         <v>492</v>
       </c>
       <c r="D11" s="12"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="111" t="s">
+      <c r="E11" s="107"/>
+      <c r="F11" s="108" t="s">
         <v>500</v>
       </c>
       <c r="G11" s="12"/>
@@ -41077,8 +40995,8 @@
         <v>492</v>
       </c>
       <c r="D12" s="12"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="111" t="s">
+      <c r="E12" s="107"/>
+      <c r="F12" s="108" t="s">
         <v>500</v>
       </c>
       <c r="G12" s="12"/>
@@ -41097,8 +41015,8 @@
         <v>492</v>
       </c>
       <c r="D13" s="12"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="111" t="s">
+      <c r="E13" s="107"/>
+      <c r="F13" s="108" t="s">
         <v>500</v>
       </c>
       <c r="G13" s="12"/>
@@ -41117,8 +41035,8 @@
         <v>492</v>
       </c>
       <c r="D14" s="12"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="111" t="s">
+      <c r="E14" s="107"/>
+      <c r="F14" s="108" t="s">
         <v>493</v>
       </c>
       <c r="G14" s="12" t="s">
@@ -41137,8 +41055,8 @@
         <v>492</v>
       </c>
       <c r="D15" s="12"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="111" t="s">
+      <c r="E15" s="107"/>
+      <c r="F15" s="108" t="s">
         <v>493</v>
       </c>
       <c r="G15" s="12" t="s">
@@ -41157,8 +41075,8 @@
         <v>492</v>
       </c>
       <c r="D16" s="12"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="111" t="s">
+      <c r="E16" s="107"/>
+      <c r="F16" s="108" t="s">
         <v>493</v>
       </c>
       <c r="G16" s="12" t="s">
@@ -41177,8 +41095,8 @@
         <v>492</v>
       </c>
       <c r="D17" s="12"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="111" t="s">
+      <c r="E17" s="107"/>
+      <c r="F17" s="108" t="s">
         <v>493</v>
       </c>
       <c r="G17" s="12" t="s">
@@ -41197,8 +41115,8 @@
         <v>492</v>
       </c>
       <c r="D18" s="12"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="111" t="s">
+      <c r="E18" s="107"/>
+      <c r="F18" s="108" t="s">
         <v>493</v>
       </c>
       <c r="G18" s="12" t="s">
@@ -41217,8 +41135,8 @@
         <v>492</v>
       </c>
       <c r="D19" s="12"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="111" t="s">
+      <c r="E19" s="107"/>
+      <c r="F19" s="108" t="s">
         <v>500</v>
       </c>
       <c r="G19" s="12"/>
@@ -41237,8 +41155,8 @@
         <v>492</v>
       </c>
       <c r="D20" s="12"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="111" t="s">
+      <c r="E20" s="107"/>
+      <c r="F20" s="108" t="s">
         <v>500</v>
       </c>
       <c r="G20" s="12"/>
@@ -41257,8 +41175,8 @@
         <v>492</v>
       </c>
       <c r="D21" s="12"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="111" t="s">
+      <c r="E21" s="107"/>
+      <c r="F21" s="108" t="s">
         <v>500</v>
       </c>
       <c r="G21" s="12"/>
@@ -41277,8 +41195,8 @@
         <v>492</v>
       </c>
       <c r="D22" s="12"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="111" t="s">
+      <c r="E22" s="107"/>
+      <c r="F22" s="108" t="s">
         <v>500</v>
       </c>
       <c r="G22" s="12"/>
@@ -41287,494 +41205,494 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="112">
+      <c r="A23" s="109">
         <v>58000100020</v>
       </c>
-      <c r="B23" s="112" t="s">
+      <c r="B23" s="109" t="s">
         <v>260</v>
       </c>
-      <c r="C23" s="113" t="s">
+      <c r="C23" s="110" t="s">
         <v>505</v>
       </c>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="115" t="s">
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="112" t="s">
         <v>506</v>
       </c>
-      <c r="G23" s="114"/>
-      <c r="H23" s="116" t="s">
+      <c r="G23" s="111"/>
+      <c r="H23" s="110" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="117">
+      <c r="A24" s="113">
         <v>58000200002</v>
       </c>
-      <c r="B24" s="118" t="s">
+      <c r="B24" s="114" t="s">
         <v>472</v>
       </c>
-      <c r="C24" s="117" t="s">
+      <c r="C24" s="113" t="s">
         <v>492</v>
       </c>
-      <c r="D24" s="118" t="s">
+      <c r="D24" s="114" t="s">
         <v>508</v>
       </c>
-      <c r="E24" s="118"/>
-      <c r="F24" s="118" t="s">
+      <c r="E24" s="114"/>
+      <c r="F24" s="114" t="s">
         <v>509</v>
       </c>
-      <c r="G24" s="118" t="s">
+      <c r="G24" s="114" t="s">
         <v>510</v>
       </c>
-      <c r="H24" s="118"/>
+      <c r="H24" s="114"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="117">
+      <c r="A25" s="113">
         <v>58000200003</v>
       </c>
-      <c r="B25" s="118" t="s">
+      <c r="B25" s="114" t="s">
         <v>511</v>
       </c>
-      <c r="C25" s="117" t="s">
+      <c r="C25" s="113" t="s">
         <v>492</v>
       </c>
-      <c r="D25" s="118" t="s">
+      <c r="D25" s="114" t="s">
         <v>508</v>
       </c>
-      <c r="E25" s="118"/>
-      <c r="F25" s="118" t="s">
+      <c r="E25" s="114"/>
+      <c r="F25" s="114" t="s">
         <v>509</v>
       </c>
-      <c r="G25" s="118" t="s">
+      <c r="G25" s="114" t="s">
         <v>510</v>
       </c>
-      <c r="H25" s="118"/>
+      <c r="H25" s="114"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="117">
+      <c r="A26" s="113">
         <v>58000200004</v>
       </c>
-      <c r="B26" s="118" t="s">
+      <c r="B26" s="114" t="s">
         <v>512</v>
       </c>
-      <c r="C26" s="117" t="s">
+      <c r="C26" s="113" t="s">
         <v>492</v>
       </c>
-      <c r="D26" s="118" t="s">
+      <c r="D26" s="114" t="s">
         <v>508</v>
       </c>
-      <c r="E26" s="118"/>
-      <c r="F26" s="118" t="s">
+      <c r="E26" s="114"/>
+      <c r="F26" s="114" t="s">
         <v>509</v>
       </c>
-      <c r="G26" s="118" t="s">
+      <c r="G26" s="114" t="s">
         <v>510</v>
       </c>
-      <c r="H26" s="118"/>
+      <c r="H26" s="114"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="117">
+      <c r="A27" s="113">
         <v>58000200005</v>
       </c>
-      <c r="B27" s="118" t="s">
+      <c r="B27" s="114" t="s">
         <v>513</v>
       </c>
-      <c r="C27" s="117" t="s">
+      <c r="C27" s="113" t="s">
         <v>492</v>
       </c>
-      <c r="D27" s="118" t="s">
+      <c r="D27" s="114" t="s">
         <v>508</v>
       </c>
-      <c r="E27" s="118"/>
-      <c r="F27" s="118" t="s">
+      <c r="E27" s="114"/>
+      <c r="F27" s="114" t="s">
         <v>509</v>
       </c>
-      <c r="G27" s="118" t="s">
+      <c r="G27" s="114" t="s">
         <v>510</v>
       </c>
-      <c r="H27" s="118"/>
+      <c r="H27" s="114"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="117">
+      <c r="A28" s="113">
         <v>58000200006</v>
       </c>
-      <c r="B28" s="118" t="s">
+      <c r="B28" s="114" t="s">
         <v>512</v>
       </c>
-      <c r="C28" s="117" t="s">
+      <c r="C28" s="113" t="s">
         <v>492</v>
       </c>
-      <c r="D28" s="118" t="s">
+      <c r="D28" s="114" t="s">
         <v>508</v>
       </c>
-      <c r="E28" s="118"/>
-      <c r="F28" s="118" t="s">
+      <c r="E28" s="114"/>
+      <c r="F28" s="114" t="s">
         <v>509</v>
       </c>
-      <c r="G28" s="118" t="s">
+      <c r="G28" s="114" t="s">
         <v>510</v>
       </c>
-      <c r="H28" s="118"/>
+      <c r="H28" s="114"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="117">
+      <c r="A29" s="113">
         <v>58000200007</v>
       </c>
-      <c r="B29" s="118" t="s">
+      <c r="B29" s="114" t="s">
         <v>514</v>
       </c>
-      <c r="C29" s="117" t="s">
+      <c r="C29" s="113" t="s">
         <v>492</v>
       </c>
-      <c r="D29" s="118" t="s">
+      <c r="D29" s="114" t="s">
         <v>508</v>
       </c>
-      <c r="E29" s="118"/>
-      <c r="F29" s="118" t="s">
+      <c r="E29" s="114"/>
+      <c r="F29" s="114" t="s">
         <v>509</v>
       </c>
-      <c r="G29" s="118" t="s">
+      <c r="G29" s="114" t="s">
         <v>510</v>
       </c>
-      <c r="H29" s="118"/>
+      <c r="H29" s="114"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="117">
+      <c r="A30" s="113">
         <v>58000200008</v>
       </c>
-      <c r="B30" s="118" t="s">
+      <c r="B30" s="114" t="s">
         <v>512</v>
       </c>
-      <c r="C30" s="117" t="s">
+      <c r="C30" s="113" t="s">
         <v>492</v>
       </c>
-      <c r="D30" s="118" t="s">
+      <c r="D30" s="114" t="s">
         <v>508</v>
       </c>
-      <c r="E30" s="118"/>
-      <c r="F30" s="118" t="s">
+      <c r="E30" s="114"/>
+      <c r="F30" s="114" t="s">
         <v>509</v>
       </c>
-      <c r="G30" s="118" t="s">
+      <c r="G30" s="114" t="s">
         <v>510</v>
       </c>
-      <c r="H30" s="118"/>
+      <c r="H30" s="114"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="117">
+      <c r="A31" s="113">
         <v>58000200009</v>
       </c>
-      <c r="B31" s="118" t="s">
+      <c r="B31" s="114" t="s">
         <v>515</v>
       </c>
-      <c r="C31" s="117" t="s">
+      <c r="C31" s="113" t="s">
         <v>492</v>
       </c>
-      <c r="D31" s="118" t="s">
+      <c r="D31" s="114" t="s">
         <v>508</v>
       </c>
-      <c r="E31" s="118"/>
-      <c r="F31" s="118" t="s">
+      <c r="E31" s="114"/>
+      <c r="F31" s="114" t="s">
         <v>509</v>
       </c>
-      <c r="G31" s="118" t="s">
+      <c r="G31" s="114" t="s">
         <v>510</v>
       </c>
-      <c r="H31" s="118"/>
+      <c r="H31" s="114"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="117">
+      <c r="A32" s="113">
         <v>58000200010</v>
       </c>
-      <c r="B32" s="118" t="s">
+      <c r="B32" s="114" t="s">
         <v>512</v>
       </c>
-      <c r="C32" s="117" t="s">
+      <c r="C32" s="113" t="s">
         <v>492</v>
       </c>
-      <c r="D32" s="118" t="s">
+      <c r="D32" s="114" t="s">
         <v>508</v>
       </c>
-      <c r="E32" s="118"/>
-      <c r="F32" s="118" t="s">
+      <c r="E32" s="114"/>
+      <c r="F32" s="114" t="s">
         <v>509</v>
       </c>
-      <c r="G32" s="118" t="s">
+      <c r="G32" s="114" t="s">
         <v>510</v>
       </c>
-      <c r="H32" s="118"/>
+      <c r="H32" s="114"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="117">
+      <c r="A33" s="113">
         <v>58000200011</v>
       </c>
-      <c r="B33" s="118" t="s">
+      <c r="B33" s="114" t="s">
         <v>516</v>
       </c>
-      <c r="C33" s="117" t="s">
+      <c r="C33" s="113" t="s">
         <v>492</v>
       </c>
-      <c r="D33" s="118" t="s">
+      <c r="D33" s="114" t="s">
         <v>508</v>
       </c>
-      <c r="E33" s="118"/>
-      <c r="F33" s="118" t="s">
+      <c r="E33" s="114"/>
+      <c r="F33" s="114" t="s">
         <v>509</v>
       </c>
-      <c r="G33" s="118" t="s">
+      <c r="G33" s="114" t="s">
         <v>510</v>
       </c>
-      <c r="H33" s="118"/>
+      <c r="H33" s="114"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="117">
+      <c r="A34" s="113">
         <v>58000200012</v>
       </c>
-      <c r="B34" s="118" t="s">
+      <c r="B34" s="114" t="s">
         <v>512</v>
       </c>
-      <c r="C34" s="117" t="s">
+      <c r="C34" s="113" t="s">
         <v>492</v>
       </c>
-      <c r="D34" s="118" t="s">
+      <c r="D34" s="114" t="s">
         <v>508</v>
       </c>
-      <c r="E34" s="118"/>
-      <c r="F34" s="118" t="s">
+      <c r="E34" s="114"/>
+      <c r="F34" s="114" t="s">
         <v>509</v>
       </c>
-      <c r="G34" s="118" t="s">
+      <c r="G34" s="114" t="s">
         <v>510</v>
       </c>
-      <c r="H34" s="118"/>
+      <c r="H34" s="114"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="117">
+      <c r="A35" s="113">
         <v>58000200013</v>
       </c>
-      <c r="B35" s="118" t="s">
+      <c r="B35" s="114" t="s">
         <v>517</v>
       </c>
-      <c r="C35" s="117" t="s">
+      <c r="C35" s="113" t="s">
         <v>492</v>
       </c>
-      <c r="D35" s="118" t="s">
+      <c r="D35" s="114" t="s">
         <v>508</v>
       </c>
-      <c r="E35" s="118"/>
-      <c r="F35" s="118" t="s">
+      <c r="E35" s="114"/>
+      <c r="F35" s="114" t="s">
         <v>509</v>
       </c>
-      <c r="G35" s="118" t="s">
+      <c r="G35" s="114" t="s">
         <v>510</v>
       </c>
-      <c r="H35" s="118"/>
+      <c r="H35" s="114"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="117">
+      <c r="A36" s="113">
         <v>58000200014</v>
       </c>
-      <c r="B36" s="118" t="s">
+      <c r="B36" s="114" t="s">
         <v>512</v>
       </c>
-      <c r="C36" s="117" t="s">
+      <c r="C36" s="113" t="s">
         <v>492</v>
       </c>
-      <c r="D36" s="118" t="s">
+      <c r="D36" s="114" t="s">
         <v>508</v>
       </c>
-      <c r="E36" s="118"/>
-      <c r="F36" s="118" t="s">
+      <c r="E36" s="114"/>
+      <c r="F36" s="114" t="s">
         <v>509</v>
       </c>
-      <c r="G36" s="118" t="s">
+      <c r="G36" s="114" t="s">
         <v>510</v>
       </c>
-      <c r="H36" s="118"/>
+      <c r="H36" s="114"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="117">
+      <c r="A37" s="113">
         <v>58000200015</v>
       </c>
-      <c r="B37" s="118" t="s">
+      <c r="B37" s="114" t="s">
         <v>518</v>
       </c>
-      <c r="C37" s="117" t="s">
+      <c r="C37" s="113" t="s">
         <v>492</v>
       </c>
-      <c r="D37" s="118" t="s">
+      <c r="D37" s="114" t="s">
         <v>508</v>
       </c>
-      <c r="E37" s="118"/>
-      <c r="F37" s="118" t="s">
+      <c r="E37" s="114"/>
+      <c r="F37" s="114" t="s">
         <v>509</v>
       </c>
-      <c r="G37" s="118" t="s">
+      <c r="G37" s="114" t="s">
         <v>510</v>
       </c>
-      <c r="H37" s="118"/>
+      <c r="H37" s="114"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="119">
+      <c r="A38" s="115">
         <v>58000200016</v>
       </c>
-      <c r="B38" s="120" t="s">
+      <c r="B38" s="116" t="s">
         <v>474</v>
       </c>
-      <c r="C38" s="119"/>
-      <c r="D38" s="120"/>
-      <c r="E38" s="120"/>
-      <c r="F38" s="120" t="s">
+      <c r="C38" s="115"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="116"/>
+      <c r="F38" s="116" t="s">
         <v>519</v>
       </c>
-      <c r="G38" s="120" t="s">
+      <c r="G38" s="116" t="s">
         <v>520</v>
       </c>
-      <c r="H38" s="120"/>
+      <c r="H38" s="116"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="119">
+      <c r="A39" s="115">
         <v>58000200017</v>
       </c>
-      <c r="B39" s="120" t="s">
+      <c r="B39" s="116" t="s">
         <v>521</v>
       </c>
-      <c r="C39" s="119"/>
-      <c r="D39" s="120"/>
-      <c r="E39" s="120"/>
-      <c r="F39" s="120" t="s">
+      <c r="C39" s="115"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="116" t="s">
         <v>519</v>
       </c>
-      <c r="G39" s="120" t="s">
+      <c r="G39" s="116" t="s">
         <v>520</v>
       </c>
-      <c r="H39" s="120"/>
+      <c r="H39" s="116"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="119">
+      <c r="A40" s="115">
         <v>58000200018</v>
       </c>
-      <c r="B40" s="120" t="s">
+      <c r="B40" s="116" t="s">
         <v>512</v>
       </c>
-      <c r="C40" s="119"/>
-      <c r="D40" s="120"/>
-      <c r="E40" s="120"/>
-      <c r="F40" s="120" t="s">
+      <c r="C40" s="115"/>
+      <c r="D40" s="116"/>
+      <c r="E40" s="116"/>
+      <c r="F40" s="116" t="s">
         <v>519</v>
       </c>
-      <c r="G40" s="120" t="s">
+      <c r="G40" s="116" t="s">
         <v>520</v>
       </c>
-      <c r="H40" s="120"/>
+      <c r="H40" s="116"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="119">
+      <c r="A41" s="115">
         <v>58000200019</v>
       </c>
-      <c r="B41" s="120" t="s">
+      <c r="B41" s="116" t="s">
         <v>522</v>
       </c>
-      <c r="C41" s="119"/>
-      <c r="D41" s="120"/>
-      <c r="E41" s="120"/>
-      <c r="F41" s="120" t="s">
+      <c r="C41" s="115"/>
+      <c r="D41" s="116"/>
+      <c r="E41" s="116"/>
+      <c r="F41" s="116" t="s">
         <v>519</v>
       </c>
-      <c r="G41" s="120" t="s">
+      <c r="G41" s="116" t="s">
         <v>520</v>
       </c>
-      <c r="H41" s="120"/>
+      <c r="H41" s="116"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="119">
+      <c r="A42" s="115">
         <v>58000200020</v>
       </c>
-      <c r="B42" s="120" t="s">
+      <c r="B42" s="116" t="s">
         <v>512</v>
       </c>
-      <c r="C42" s="119"/>
-      <c r="D42" s="120"/>
-      <c r="E42" s="120"/>
-      <c r="F42" s="120" t="s">
+      <c r="C42" s="115"/>
+      <c r="D42" s="116"/>
+      <c r="E42" s="116"/>
+      <c r="F42" s="116" t="s">
         <v>519</v>
       </c>
-      <c r="G42" s="120" t="s">
+      <c r="G42" s="116" t="s">
         <v>520</v>
       </c>
-      <c r="H42" s="120"/>
+      <c r="H42" s="116"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="119">
+      <c r="A43" s="115">
         <v>58000200021</v>
       </c>
-      <c r="B43" s="120" t="s">
+      <c r="B43" s="116" t="s">
         <v>523</v>
       </c>
-      <c r="C43" s="119"/>
-      <c r="D43" s="120"/>
-      <c r="E43" s="120"/>
-      <c r="F43" s="120" t="s">
+      <c r="C43" s="115"/>
+      <c r="D43" s="116"/>
+      <c r="E43" s="116"/>
+      <c r="F43" s="116" t="s">
         <v>519</v>
       </c>
-      <c r="G43" s="120" t="s">
+      <c r="G43" s="116" t="s">
         <v>520</v>
       </c>
-      <c r="H43" s="120"/>
+      <c r="H43" s="116"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="119">
+      <c r="A44" s="115">
         <v>58000200022</v>
       </c>
-      <c r="B44" s="120" t="s">
+      <c r="B44" s="116" t="s">
         <v>512</v>
       </c>
-      <c r="C44" s="119"/>
-      <c r="D44" s="120"/>
-      <c r="E44" s="120"/>
-      <c r="F44" s="120" t="s">
+      <c r="C44" s="115"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="116"/>
+      <c r="F44" s="116" t="s">
         <v>519</v>
       </c>
-      <c r="G44" s="120" t="s">
+      <c r="G44" s="116" t="s">
         <v>520</v>
       </c>
-      <c r="H44" s="120"/>
+      <c r="H44" s="116"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="119">
+      <c r="A45" s="115">
         <v>58000200023</v>
       </c>
-      <c r="B45" s="120" t="s">
+      <c r="B45" s="116" t="s">
         <v>524</v>
       </c>
-      <c r="C45" s="119"/>
-      <c r="D45" s="120"/>
-      <c r="E45" s="120"/>
-      <c r="F45" s="120" t="s">
+      <c r="C45" s="115"/>
+      <c r="D45" s="116"/>
+      <c r="E45" s="116"/>
+      <c r="F45" s="116" t="s">
         <v>519</v>
       </c>
-      <c r="G45" s="120" t="s">
+      <c r="G45" s="116" t="s">
         <v>520</v>
       </c>
-      <c r="H45" s="120"/>
+      <c r="H45" s="116"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="120">
+      <c r="A46" s="116">
         <v>58000200024</v>
       </c>
-      <c r="B46" s="120" t="s">
+      <c r="B46" s="116" t="s">
         <v>525</v>
       </c>
-      <c r="C46" s="120"/>
-      <c r="D46" s="120"/>
-      <c r="E46" s="120"/>
-      <c r="F46" s="120" t="s">
+      <c r="C46" s="116"/>
+      <c r="D46" s="116"/>
+      <c r="E46" s="116"/>
+      <c r="F46" s="116" t="s">
         <v>526</v>
       </c>
-      <c r="G46" s="120" t="s">
+      <c r="G46" s="116" t="s">
         <v>520</v>
       </c>
-      <c r="H46" s="120"/>
+      <c r="H46" s="116"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41801,57 +41719,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="105" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="105" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="105" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="108" t="s">
+      <c r="F1" s="105" t="s">
         <v>129</v>
       </c>
-      <c r="G1" s="108" t="s">
+      <c r="G1" s="105" t="s">
         <v>132</v>
       </c>
-      <c r="H1" s="109" t="s">
+      <c r="H1" s="106" t="s">
         <v>135</v>
       </c>
-      <c r="I1" s="109" t="s">
+      <c r="I1" s="106" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="105" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="108" t="s">
+      <c r="D2" s="105" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="108" t="s">
+      <c r="E2" s="105" t="s">
         <v>127</v>
       </c>
-      <c r="F2" s="108" t="s">
+      <c r="F2" s="105" t="s">
         <v>130</v>
       </c>
-      <c r="G2" s="108" t="s">
+      <c r="G2" s="105" t="s">
         <v>133</v>
       </c>
-      <c r="H2" s="108" t="s">
+      <c r="H2" s="105" t="s">
         <v>136</v>
       </c>
       <c r="I2" s="81" t="s">
@@ -41859,60 +41777,60 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="105" t="s">
         <v>227</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="105" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="105" t="s">
         <v>211</v>
       </c>
-      <c r="D3" s="108" t="s">
+      <c r="D3" s="105" t="s">
         <v>211</v>
       </c>
-      <c r="E3" s="108" t="s">
+      <c r="E3" s="105" t="s">
         <v>211</v>
       </c>
-      <c r="F3" s="108" t="s">
+      <c r="F3" s="105" t="s">
         <v>211</v>
       </c>
-      <c r="G3" s="108" t="s">
+      <c r="G3" s="105" t="s">
         <v>227</v>
       </c>
-      <c r="H3" s="108" t="s">
+      <c r="H3" s="105" t="s">
         <v>227</v>
       </c>
-      <c r="I3" s="109" t="s">
+      <c r="I3" s="106" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="108">
+      <c r="A4" s="105">
         <v>1</v>
       </c>
-      <c r="B4" s="108">
+      <c r="B4" s="105">
         <v>1</v>
       </c>
-      <c r="C4" s="108">
+      <c r="C4" s="105">
         <v>1</v>
       </c>
-      <c r="D4" s="108">
+      <c r="D4" s="105">
         <v>1</v>
       </c>
-      <c r="E4" s="108">
+      <c r="E4" s="105">
         <v>1</v>
       </c>
-      <c r="F4" s="108">
+      <c r="F4" s="105">
         <v>1</v>
       </c>
-      <c r="G4" s="108">
+      <c r="G4" s="105">
         <v>1</v>
       </c>
-      <c r="H4" s="108">
+      <c r="H4" s="105">
         <v>1</v>
       </c>
-      <c r="I4" s="109">
+      <c r="I4" s="106">
         <v>1</v>
       </c>
     </row>

--- a/game/MMO/ExcelMMO/activity.xlsx
+++ b/game/MMO/ExcelMMO/activity.xlsx
@@ -13258,7 +13258,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -13347,7 +13347,7 @@
         <v>540</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>179</v>
+        <v>541</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>180</v>

--- a/game/MMO/ExcelMMO/activity.xlsx
+++ b/game/MMO/ExcelMMO/activity.xlsx
@@ -13258,7 +13258,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -13350,7 +13350,7 @@
         <v>541</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>180</v>
+        <v>540</v>
       </c>
       <c r="M2" s="10" t="s">
         <v>558</v>
